--- a/Guia_Api_Facturas_Generix.xlsx
+++ b/Guia_Api_Facturas_Generix.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\layuso\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://generixgrouponline-my.sharepoint.com/personal/icastro_generixgroup_com/Documents/Documentos/GITHUB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010EF652-DD21-44E7-ABE9-A00A0A7ADC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{010EF652-DD21-44E7-ABE9-A00A0A7ADC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{042D9953-D251-46F7-99C5-DCDF2FD1DBBA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Esquema General" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="541">
   <si>
     <t>JSON</t>
   </si>
@@ -1614,36 +1614,12 @@
     <t>2.2.5.1.12.</t>
   </si>
   <si>
-    <t>2.2.5.1.12.1.</t>
-  </si>
-  <si>
-    <t>2.2.5.1.12.1.1.</t>
-  </si>
-  <si>
-    <t>2.2.5.1.12.1.2.</t>
-  </si>
-  <si>
-    <t>2.2.5.1.12.1.3.</t>
-  </si>
-  <si>
-    <t>2.2.5.1.12.1.3.1.</t>
-  </si>
-  <si>
-    <t>2.2.5.1.12.1.4.</t>
-  </si>
-  <si>
-    <t>2.2.5.1.12.1.4.1.</t>
-  </si>
-  <si>
     <t>2.2.5.1.13.</t>
   </si>
   <si>
     <t>2.2.5.1.13.1.</t>
   </si>
   <si>
-    <t>2.2.5.1.13.2.</t>
-  </si>
-  <si>
     <t>2.2.5.1.14.</t>
   </si>
   <si>
@@ -1687,6 +1663,33 @@
   </si>
   <si>
     <t>2.2.7.1.1.5.</t>
+  </si>
+  <si>
+    <t>2.2.5.1.13.1.1.</t>
+  </si>
+  <si>
+    <t>2.2.5.1.13.1.2.</t>
+  </si>
+  <si>
+    <t>2.2.5.1.13.1.3.</t>
+  </si>
+  <si>
+    <t>2.2.5.1.13.1.3.1.</t>
+  </si>
+  <si>
+    <t>2.2.5.1.13.1.4.</t>
+  </si>
+  <si>
+    <t>2.2.5.1.13.1.4.1.</t>
+  </si>
+  <si>
+    <t>2.2.5.1.14.1.</t>
+  </si>
+  <si>
+    <t>2.2.5.1.14.2.</t>
+  </si>
+  <si>
+    <t>2.2.5.1.15.</t>
   </si>
 </sst>
 </file>
@@ -2568,8 +2571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -5871,8 +5874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25333C4E-FCEB-4BCB-A95F-5DF88E54B42A}">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -7484,7 +7487,7 @@
     <row r="74" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A74" s="15"/>
       <c r="B74" s="15" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C74" s="15" t="s">
         <v>62</v>
@@ -7504,7 +7507,7 @@
     <row r="75" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A75" s="15"/>
       <c r="B75" s="15" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C75" s="15" t="s">
         <v>63</v>
@@ -7526,7 +7529,7 @@
     <row r="76" spans="1:8" ht="108" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A76" s="15"/>
       <c r="B76" s="15" t="s">
-        <v>516</v>
+        <v>532</v>
       </c>
       <c r="C76" s="15" t="s">
         <v>64</v>
@@ -7548,7 +7551,7 @@
     <row r="77" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A77" s="15"/>
       <c r="B77" s="15" t="s">
-        <v>517</v>
+        <v>533</v>
       </c>
       <c r="C77" s="15" t="s">
         <v>65</v>
@@ -7572,7 +7575,7 @@
     <row r="78" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A78" s="15"/>
       <c r="B78" s="15" t="s">
-        <v>518</v>
+        <v>534</v>
       </c>
       <c r="C78" s="15" t="s">
         <v>66</v>
@@ -7594,7 +7597,7 @@
     <row r="79" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A79" s="15"/>
       <c r="B79" s="15" t="s">
-        <v>519</v>
+        <v>535</v>
       </c>
       <c r="C79" s="15" t="s">
         <v>37</v>
@@ -7618,7 +7621,7 @@
     <row r="80" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A80" s="15"/>
       <c r="B80" s="15" t="s">
-        <v>520</v>
+        <v>536</v>
       </c>
       <c r="C80" s="15" t="s">
         <v>67</v>
@@ -7640,7 +7643,7 @@
     <row r="81" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A81" s="15"/>
       <c r="B81" s="15" t="s">
-        <v>521</v>
+        <v>537</v>
       </c>
       <c r="C81" s="15" t="s">
         <v>37</v>
@@ -7664,7 +7667,7 @@
     <row r="82" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A82" s="15"/>
       <c r="B82" s="15" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="C82" s="15" t="s">
         <v>104</v>
@@ -7686,7 +7689,7 @@
     <row r="83" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A83" s="15"/>
       <c r="B83" s="15" t="s">
-        <v>523</v>
+        <v>538</v>
       </c>
       <c r="C83" s="15" t="s">
         <v>58</v>
@@ -7708,7 +7711,7 @@
     <row r="84" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A84" s="15"/>
       <c r="B84" s="15" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="C84" s="15" t="s">
         <v>59</v>
@@ -7730,7 +7733,7 @@
     <row r="85" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A85" s="15"/>
       <c r="B85" s="15" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
       <c r="C85" s="15" t="s">
         <v>105</v>
@@ -7774,7 +7777,7 @@
     <row r="87" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A87" s="15"/>
       <c r="B87" s="15" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="C87" s="15" t="s">
         <v>107</v>
@@ -7796,7 +7799,7 @@
     <row r="88" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A88" s="15"/>
       <c r="B88" s="15" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="C88" s="15" t="s">
         <v>108</v>
@@ -7818,7 +7821,7 @@
     <row r="89" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A89" s="15"/>
       <c r="B89" s="15" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="C89" s="15" t="s">
         <v>109</v>
@@ -7840,7 +7843,7 @@
     <row r="90" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A90" s="15"/>
       <c r="B90" s="15" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="C90" s="15" t="s">
         <v>110</v>
@@ -7862,7 +7865,7 @@
     <row r="91" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A91" s="15"/>
       <c r="B91" s="15" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="C91" s="15" t="s">
         <v>111</v>
@@ -7884,7 +7887,7 @@
     <row r="92" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A92" s="15"/>
       <c r="B92" s="15" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="C92" s="15" t="s">
         <v>112</v>
@@ -7906,7 +7909,7 @@
     <row r="93" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A93" s="15"/>
       <c r="B93" s="15" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="C93" s="15" t="s">
         <v>113</v>
@@ -7950,7 +7953,7 @@
     <row r="95" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A95" s="15"/>
       <c r="B95" s="15" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="C95" s="15" t="s">
         <v>115</v>
@@ -7972,7 +7975,7 @@
     <row r="96" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A96" s="15"/>
       <c r="B96" s="15" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="C96" s="15" t="s">
         <v>116</v>
@@ -7994,7 +7997,7 @@
     <row r="97" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A97" s="15"/>
       <c r="B97" s="15" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="C97" s="15" t="s">
         <v>117</v>
@@ -8016,7 +8019,7 @@
     <row r="98" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A98" s="15"/>
       <c r="B98" s="15" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="C98" s="15" t="s">
         <v>118</v>
@@ -8038,7 +8041,7 @@
     <row r="99" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A99" s="15"/>
       <c r="B99" s="15" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="C99" s="15" t="s">
         <v>119</v>
@@ -8060,7 +8063,7 @@
     <row r="100" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A100" s="15"/>
       <c r="B100" s="15" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="C100" s="15" t="s">
         <v>120</v>
@@ -8082,7 +8085,7 @@
     <row r="101" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A101" s="15"/>
       <c r="B101" s="15" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="C101" s="15" t="s">
         <v>121</v>
@@ -8111,21 +8114,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010059947A54AABC264B9B6A1395610EB9E4" ma:contentTypeVersion="4" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="039196c1875697d49709999e09f36296">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="669b3db3-d5a4-4d30-a460-f1a7bf62d82d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9472c2359e272d42a2ac2df94db4dd7c" ns2:_="">
     <xsd:import namespace="669b3db3-d5a4-4d30-a460-f1a7bf62d82d"/>
@@ -8269,24 +8257,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DACEA6D3-E19D-4B7E-B8E4-FC2FFCAA4342}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7511AB4F-EDCE-4C8F-9114-F29EE1FED04D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7010204-F282-4DB8-BAA4-6B407FACE274}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8302,4 +8288,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7511AB4F-EDCE-4C8F-9114-F29EE1FED04D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DACEA6D3-E19D-4B7E-B8E4-FC2FFCAA4342}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Guia_Api_Facturas_Generix.xlsx
+++ b/Guia_Api_Facturas_Generix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://generixgrouponline-my.sharepoint.com/personal/icastro_generixgroup_com/Documents/Documentos/GITHUB/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://generixgrouponline-my.sharepoint.com/personal/icastro_generixgroup_com/Documents/Documentos/WORKSPACE/CREA Y CRECE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{010EF652-DD21-44E7-ABE9-A00A0A7ADC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{042D9953-D251-46F7-99C5-DCDF2FD1DBBA}"/>
+  <xr:revisionPtr revIDLastSave="106" documentId="13_ncr:1_{010EF652-DD21-44E7-ABE9-A00A0A7ADC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44FF1F54-8098-4CAD-8DCC-5D3E6BA3355C}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Esquema General" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="Grupo 2.1" sheetId="4" r:id="rId3"/>
     <sheet name="Grupo 2.2" sheetId="5" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1523" uniqueCount="572">
   <si>
     <t>JSON</t>
   </si>
@@ -1314,24 +1317,6 @@
     <t>2.1.1.4.2.</t>
   </si>
   <si>
-    <t>2.1.1.4.2.1.</t>
-  </si>
-  <si>
-    <t>2.1.1.4.2.2.</t>
-  </si>
-  <si>
-    <t>2.1.1.4.2.3.</t>
-  </si>
-  <si>
-    <t>2.1.1.4.2.4.</t>
-  </si>
-  <si>
-    <t>2.1.1.4.2.5.</t>
-  </si>
-  <si>
-    <t>2.1.1.4.3..</t>
-  </si>
-  <si>
     <t>2.1.1.4.3.1.</t>
   </si>
   <si>
@@ -1690,6 +1675,118 @@
   </si>
   <si>
     <t>2.2.5.1.15.</t>
+  </si>
+  <si>
+    <t>2.1.1.4.2.1</t>
+  </si>
+  <si>
+    <t>2.1.1.4.2.2</t>
+  </si>
+  <si>
+    <t>2.1.1.4.2.3</t>
+  </si>
+  <si>
+    <t>2.1.1.4.2.4</t>
+  </si>
+  <si>
+    <t>2.1.1.4.2.5</t>
+  </si>
+  <si>
+    <t>2.1.1.4.2.6</t>
+  </si>
+  <si>
+    <t>2.1.1.4.2</t>
+  </si>
+  <si>
+    <t>2.1.1.4.3.</t>
+  </si>
+  <si>
+    <t>2.1.1.4.4.</t>
+  </si>
+  <si>
+    <t>2.1.1.4.4.1.</t>
+  </si>
+  <si>
+    <t>2.1.1.4.4.2.</t>
+  </si>
+  <si>
+    <t>2.1.1.4.4.3.</t>
+  </si>
+  <si>
+    <t>2.1.1.4.4.4.</t>
+  </si>
+  <si>
+    <t>2.1.1.4.4.5.</t>
+  </si>
+  <si>
+    <t>Rectificativa.</t>
+  </si>
+  <si>
+    <t>CorrectiveType</t>
+  </si>
+  <si>
+    <t>Número de la factura que se rectifica. Será obligatorio
+cuando el dato "CorrectionMethod" (Código del criterio de la rectificación) sea "01" o "02".</t>
+  </si>
+  <si>
+    <t>Código del motivo. Código numérico del motivo de rectificación. "01" a "16" errores según reglamento RD 1496/2003; "80" a "85" errores según Artº 80 Ley 37/92 de IVA</t>
+  </si>
+  <si>
+    <t>ReasonCodeType string</t>
+  </si>
+  <si>
+    <t>Descripción motivo. Descripción del motivo de rectificación y que se corresponde con cada código. p.ej. [Número de la factura], [Serie de la factura], [Fecha expedición], [Nombre y apellidos/Razón Social-Emisor]... Ver tabla de códigos y descripciones.</t>
+  </si>
+  <si>
+    <t>ReasonDescriptionType string</t>
+  </si>
+  <si>
+    <t>Período natural en el que se produjeron los efectos fiscales de la factura a rectificar; y, por lo tanto, se tributó, y que ahora, es objeto de rectificación. ISO 8601:2004.</t>
+  </si>
+  <si>
+    <t>Código numérico que identifica el criterio empleado en cada caso para una rectificación. "01" - se reflejan todos los detalles a rectificar de la factura original. "02" – solo se anotan los detalles ya rectificados. "03" - Rectificación por descuento por volumen de operaciones durante un periodo. - "04" - Autorizadas por la Agencia Tributaria".</t>
+  </si>
+  <si>
+    <t>CorrectionMethodType string</t>
+  </si>
+  <si>
+    <t>Descripción del criterio asociada al código indicado en el campo anterior. "01" - Rectificación modelo íntegro. "02" - Rectificación modelo por diferencias. "03" - Rectificación por descuento por volumen de operaciones durante un período. - "04" - Autorizadas por la Agencia Tributaria".</t>
+  </si>
+  <si>
+    <t>CorrectionMethodDescriptionType string</t>
+  </si>
+  <si>
+    <t>Fecha de expedición de la factura rectificada. Valor obligatorio en el supuesto de que la etiqueta CorrectionMethod tome los valores “01” o “02”</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>2.2.1.4.</t>
+  </si>
+  <si>
+    <t>Corrective</t>
+  </si>
+  <si>
+    <t>2.2.1.4.1.</t>
+  </si>
+  <si>
+    <t>2.2.1.4.2.</t>
+  </si>
+  <si>
+    <t>2.2.1.4.3.</t>
+  </si>
+  <si>
+    <t>2.2.1.4.4.</t>
+  </si>
+  <si>
+    <t>2.2.1.4.5.</t>
+  </si>
+  <si>
+    <t>2.2.1.4.6.</t>
+  </si>
+  <si>
+    <t>2.2.1.4.7.</t>
   </si>
 </sst>
 </file>
@@ -1845,7 +1942,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2005,6 +2102,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2250,6 +2350,116 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="JSON"/>
+      <sheetName val="Formato JSON"/>
+      <sheetName val="Grupo1"/>
+      <sheetName val="Grupo 2.1"/>
+      <sheetName val="Grupo 2.2"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="63">
+          <cell r="K63" t="str">
+            <v>CorporateName</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="K64" t="str">
+            <v>RegistrationData</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="K65" t="str">
+            <v>Book</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="K66" t="str">
+            <v>RegisterOfCompaniesLocation</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="K67" t="str">
+            <v>Sheet</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="K68" t="str">
+            <v>Folio</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="K69" t="str">
+            <v>Section</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="K70" t="str">
+            <v>Volume</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="K120" t="str">
+            <v>InvoiceNumber</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="K121" t="str">
+            <v>ReasonCode</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="K122" t="str">
+            <v>ReasonDescription</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="K123" t="str">
+            <v>TaxPeriod</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="K124" t="str">
+            <v>StartDate</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="K125" t="str">
+            <v>EndDate</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="K126" t="str">
+            <v>CorrectionMethod</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="K127" t="str">
+            <v>CorrectionMethodDescription</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="K128" t="str">
+            <v>InvoiceIssueDate</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3095,7 +3305,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D4BC373-9472-45A7-8E38-AC686175D042}">
   <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
@@ -4307,10 +4517,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B13C99-BA63-4783-81FE-9F858A27BFD2}">
-  <dimension ref="A1:I72"/>
+  <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H2"/>
+    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -4858,35 +5068,36 @@
     <row r="27" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A27" s="16"/>
       <c r="B27" s="20" t="s">
-        <v>412</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="43" t="s">
-        <v>177</v>
-      </c>
-      <c r="E27" s="17"/>
-      <c r="F27" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="G27" s="44" t="s">
-        <v>130</v>
-      </c>
-      <c r="H27" s="43" t="s">
-        <v>178</v>
+        <v>541</v>
+      </c>
+      <c r="C27" s="20" t="str">
+        <f>[1]JSON!K63</f>
+        <v>CorporateName</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="E27" s="14"/>
+      <c r="F27" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="G27" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A28" s="16"/>
       <c r="B28" s="20" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E28" s="17"/>
       <c r="F28" s="44" t="s">
@@ -4896,19 +5107,19 @@
         <v>130</v>
       </c>
       <c r="H28" s="43" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A29" s="16"/>
       <c r="B29" s="20" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D29" s="43" t="s">
-        <v>237</v>
+        <v>179</v>
       </c>
       <c r="E29" s="17"/>
       <c r="F29" s="44" t="s">
@@ -4918,411 +5129,424 @@
         <v>130</v>
       </c>
       <c r="H29" s="43" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A30" s="16"/>
       <c r="B30" s="20" t="s">
-        <v>415</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D30" s="43" t="s">
-        <v>193</v>
-      </c>
-      <c r="E30" s="17"/>
-      <c r="F30" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="G30" s="44" t="s">
-        <v>130</v>
-      </c>
-      <c r="H30" s="43" t="s">
-        <v>180</v>
+        <v>414</v>
+      </c>
+      <c r="C30" s="20" t="str">
+        <f>[1]JSON!K64</f>
+        <v>RegistrationData</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="E30" s="14"/>
+      <c r="F30" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="G30" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="31" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A31" s="16"/>
       <c r="B31" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="D31" s="43" t="s">
-        <v>194</v>
-      </c>
-      <c r="E31" s="17"/>
-      <c r="F31" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="G31" s="44" t="s">
-        <v>130</v>
-      </c>
-      <c r="H31" s="43" t="s">
-        <v>195</v>
+        <v>535</v>
+      </c>
+      <c r="C31" s="20" t="str">
+        <f>[1]JSON!K65</f>
+        <v>Book</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="E31" s="14"/>
+      <c r="F31" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="G31" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="32" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16"/>
       <c r="B32" s="20" t="s">
-        <v>417</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D32" s="43" t="s">
-        <v>196</v>
-      </c>
-      <c r="E32" s="17"/>
-      <c r="F32" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="G32" s="44" t="s">
-        <v>130</v>
-      </c>
-      <c r="H32" s="43" t="s">
-        <v>197</v>
+        <v>536</v>
+      </c>
+      <c r="C32" s="20" t="str">
+        <f>[1]JSON!K66</f>
+        <v>RegisterOfCompaniesLocation</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="E32" s="14"/>
+      <c r="F32" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="G32" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="33" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A33" s="16"/>
       <c r="B33" s="20" t="s">
-        <v>418</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D33" s="43" t="s">
-        <v>198</v>
-      </c>
-      <c r="E33" s="17"/>
-      <c r="F33" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="G33" s="44" t="s">
-        <v>130</v>
-      </c>
-      <c r="H33" s="43" t="s">
+        <v>537</v>
+      </c>
+      <c r="C33" s="20" t="str">
+        <f>[1]JSON!K67</f>
+        <v>Sheet</v>
+      </c>
+      <c r="D33" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="E33" s="14"/>
+      <c r="F33" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="G33" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="H33" s="15" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16"/>
       <c r="B34" s="20" t="s">
-        <v>419</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D34" s="43" t="s">
-        <v>238</v>
-      </c>
-      <c r="E34" s="17"/>
-      <c r="F34" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="G34" s="44" t="s">
-        <v>130</v>
-      </c>
-      <c r="H34" s="43" t="s">
-        <v>200</v>
+        <v>538</v>
+      </c>
+      <c r="C34" s="20" t="str">
+        <f>[1]JSON!K68</f>
+        <v>Folio</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="E34" s="14"/>
+      <c r="F34" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="G34" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="H34" s="15" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="35" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A35" s="16"/>
       <c r="B35" s="20" t="s">
-        <v>420</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" s="43" t="s">
-        <v>201</v>
-      </c>
-      <c r="E35" s="17"/>
-      <c r="F35" s="44" t="s">
+        <v>539</v>
+      </c>
+      <c r="C35" s="20" t="str">
+        <f>[1]JSON!K69</f>
+        <v>Section</v>
+      </c>
+      <c r="D35" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="E35" s="14"/>
+      <c r="F35" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="G35" s="44" t="s">
+      <c r="G35" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="H35" s="43" t="s">
-        <v>202</v>
+      <c r="H35" s="15" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="36" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A36" s="16"/>
       <c r="B36" s="20" t="s">
-        <v>421</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="D36" s="43" t="s">
-        <v>203</v>
-      </c>
-      <c r="E36" s="17"/>
-      <c r="F36" s="44" t="s">
+        <v>540</v>
+      </c>
+      <c r="C36" s="20" t="str">
+        <f>[1]JSON!K70</f>
+        <v>Volume</v>
+      </c>
+      <c r="D36" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="E36" s="14"/>
+      <c r="F36" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="G36" s="44" t="s">
+      <c r="G36" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="H36" s="43" t="s">
-        <v>204</v>
+      <c r="H36" s="15" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="37" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A37" s="16"/>
       <c r="B37" s="20" t="s">
-        <v>422</v>
+        <v>542</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D37" s="43" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="E37" s="17"/>
       <c r="F37" s="44" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="G37" s="44" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="H37" s="43" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
     </row>
     <row r="38" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A38" s="16"/>
       <c r="B38" s="20" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D38" s="43" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="E38" s="17"/>
       <c r="F38" s="44" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="G38" s="44" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="H38" s="43" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
     </row>
     <row r="39" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A39" s="16"/>
       <c r="B39" s="20" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D39" s="43" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="E39" s="17"/>
       <c r="F39" s="44" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="G39" s="44" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="H39" s="43" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
     </row>
     <row r="40" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A40" s="16"/>
       <c r="B40" s="20" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D40" s="43" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="E40" s="17"/>
       <c r="F40" s="44" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="G40" s="44" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="H40" s="43" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D41" s="6"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="19"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="9"/>
-      <c r="B42" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="D42" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="F42" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="G42" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="H42" s="10" t="s">
-        <v>127</v>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="16"/>
+      <c r="B41" s="20" t="s">
+        <v>418</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="E41" s="17"/>
+      <c r="F41" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="G41" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="H41" s="43" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="16"/>
+      <c r="B42" s="20" t="s">
+        <v>419</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="E42" s="17"/>
+      <c r="F42" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="G42" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="H42" s="43" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="43" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A43" s="16"/>
-      <c r="B43" s="21" t="s">
-        <v>354</v>
-      </c>
-      <c r="C43" s="21" t="s">
-        <v>49</v>
+      <c r="B43" s="20" t="s">
+        <v>543</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>27</v>
       </c>
       <c r="D43" s="43" t="s">
-        <v>152</v>
-      </c>
-      <c r="E43" s="16"/>
+        <v>201</v>
+      </c>
+      <c r="E43" s="17"/>
       <c r="F43" s="44" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="G43" s="44" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="H43" s="43" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
     </row>
     <row r="44" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A44" s="16"/>
-      <c r="B44" s="21" t="s">
-        <v>426</v>
-      </c>
-      <c r="C44" s="21" t="s">
-        <v>7</v>
+      <c r="B44" s="20" t="s">
+        <v>544</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>28</v>
       </c>
       <c r="D44" s="43" t="s">
-        <v>169</v>
-      </c>
-      <c r="E44" s="16"/>
+        <v>203</v>
+      </c>
+      <c r="E44" s="17"/>
       <c r="F44" s="44" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="G44" s="44" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="H44" s="43" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
     </row>
     <row r="45" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A45" s="16"/>
-      <c r="B45" s="21" t="s">
-        <v>427</v>
-      </c>
-      <c r="C45" s="21" t="s">
-        <v>8</v>
+      <c r="B45" s="20" t="s">
+        <v>545</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>29</v>
       </c>
       <c r="D45" s="43" t="s">
-        <v>226</v>
-      </c>
-      <c r="E45" s="16"/>
+        <v>205</v>
+      </c>
+      <c r="E45" s="17"/>
       <c r="F45" s="44" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="G45" s="44" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="H45" s="43" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A46" s="16"/>
-      <c r="B46" s="21" t="s">
-        <v>428</v>
-      </c>
-      <c r="C46" s="21" t="s">
-        <v>9</v>
+      <c r="B46" s="20" t="s">
+        <v>546</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>30</v>
       </c>
       <c r="D46" s="43" t="s">
-        <v>227</v>
-      </c>
-      <c r="E46" s="16"/>
+        <v>206</v>
+      </c>
+      <c r="E46" s="17"/>
       <c r="F46" s="44" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="G46" s="44" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="H46" s="43" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A47" s="16"/>
-      <c r="B47" s="21" t="s">
-        <v>429</v>
-      </c>
-      <c r="C47" s="21" t="s">
-        <v>10</v>
+      <c r="B47" s="20" t="s">
+        <v>547</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>31</v>
       </c>
       <c r="D47" s="43" t="s">
-        <v>175</v>
-      </c>
-      <c r="E47" s="16"/>
+        <v>208</v>
+      </c>
+      <c r="E47" s="17"/>
       <c r="F47" s="44" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="G47" s="44" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="H47" s="43" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A48" s="16"/>
-      <c r="B48" s="21" t="s">
-        <v>430</v>
-      </c>
-      <c r="C48" s="21" t="s">
-        <v>44</v>
+      <c r="B48" s="20" t="s">
+        <v>548</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>32</v>
       </c>
       <c r="D48" s="43" t="s">
-        <v>229</v>
-      </c>
-      <c r="E48" s="16"/>
+        <v>209</v>
+      </c>
+      <c r="E48" s="17"/>
       <c r="F48" s="44" t="s">
         <v>141</v>
       </c>
@@ -5330,85 +5554,79 @@
         <v>142</v>
       </c>
       <c r="H48" s="43" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="16"/>
-      <c r="B49" s="21" t="s">
-        <v>431</v>
-      </c>
-      <c r="C49" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D49" s="43" t="s">
-        <v>231</v>
-      </c>
-      <c r="E49" s="16"/>
-      <c r="F49" s="44" t="s">
-        <v>141</v>
-      </c>
-      <c r="G49" s="44" t="s">
-        <v>142</v>
-      </c>
-      <c r="H49" s="43" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="16"/>
-      <c r="B50" s="21" t="s">
-        <v>432</v>
-      </c>
-      <c r="C50" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="D50" s="43" t="s">
-        <v>233</v>
-      </c>
-      <c r="E50" s="16"/>
-      <c r="F50" s="44" t="s">
-        <v>141</v>
-      </c>
-      <c r="G50" s="44" t="s">
-        <v>142</v>
-      </c>
-      <c r="H50" s="43" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="84" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
+      <c r="B49" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D49" s="6"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="19"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="9"/>
+      <c r="B50" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D50" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="G50" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="H50" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A51" s="16"/>
       <c r="B51" s="21" t="s">
-        <v>433</v>
+        <v>354</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D51" s="43" t="s">
-        <v>235</v>
+        <v>152</v>
       </c>
       <c r="E51" s="16"/>
       <c r="F51" s="44" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="G51" s="44" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="H51" s="43" t="s">
-        <v>236</v>
+        <v>151</v>
       </c>
     </row>
     <row r="52" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A52" s="16"/>
       <c r="B52" s="21" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D52" s="43" t="s">
-        <v>237</v>
+        <v>169</v>
       </c>
       <c r="E52" s="16"/>
       <c r="F52" s="44" t="s">
@@ -5418,19 +5636,19 @@
         <v>130</v>
       </c>
       <c r="H52" s="43" t="s">
-        <v>192</v>
+        <v>225</v>
       </c>
     </row>
     <row r="53" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A53" s="16"/>
       <c r="B53" s="21" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="C53" s="21" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D53" s="43" t="s">
-        <v>193</v>
+        <v>226</v>
       </c>
       <c r="E53" s="16"/>
       <c r="F53" s="44" t="s">
@@ -5440,19 +5658,19 @@
         <v>130</v>
       </c>
       <c r="H53" s="43" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A54" s="16"/>
       <c r="B54" s="21" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="C54" s="21" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D54" s="43" t="s">
-        <v>194</v>
+        <v>227</v>
       </c>
       <c r="E54" s="16"/>
       <c r="F54" s="44" t="s">
@@ -5462,19 +5680,19 @@
         <v>130</v>
       </c>
       <c r="H54" s="43" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A55" s="16"/>
       <c r="B55" s="21" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="C55" s="21" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D55" s="43" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="E55" s="16"/>
       <c r="F55" s="44" t="s">
@@ -5484,63 +5702,63 @@
         <v>130</v>
       </c>
       <c r="H55" s="43" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A56" s="16"/>
       <c r="B56" s="21" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="C56" s="21" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="D56" s="43" t="s">
-        <v>198</v>
+        <v>229</v>
       </c>
       <c r="E56" s="16"/>
       <c r="F56" s="44" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="G56" s="44" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="H56" s="43" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A57" s="16"/>
       <c r="B57" s="21" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="C57" s="21" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="D57" s="43" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E57" s="16"/>
       <c r="F57" s="44" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="G57" s="44" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="H57" s="43" t="s">
-        <v>200</v>
+        <v>232</v>
       </c>
     </row>
     <row r="58" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A58" s="16"/>
       <c r="B58" s="21" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="C58" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D58" s="28" t="s">
-        <v>239</v>
+        <v>46</v>
+      </c>
+      <c r="D58" s="43" t="s">
+        <v>233</v>
       </c>
       <c r="E58" s="16"/>
       <c r="F58" s="44" t="s">
@@ -5550,41 +5768,41 @@
         <v>142</v>
       </c>
       <c r="H58" s="43" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="84" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A59" s="16"/>
       <c r="B59" s="21" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="C59" s="21" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="D59" s="43" t="s">
-        <v>177</v>
+        <v>235</v>
       </c>
       <c r="E59" s="16"/>
       <c r="F59" s="44" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="G59" s="44" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="H59" s="43" t="s">
-        <v>178</v>
+        <v>236</v>
       </c>
     </row>
     <row r="60" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A60" s="16"/>
       <c r="B60" s="21" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="C60" s="21" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D60" s="43" t="s">
-        <v>179</v>
+        <v>237</v>
       </c>
       <c r="E60" s="16"/>
       <c r="F60" s="44" t="s">
@@ -5594,19 +5812,19 @@
         <v>130</v>
       </c>
       <c r="H60" s="43" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
     </row>
     <row r="61" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A61" s="16"/>
       <c r="B61" s="21" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="C61" s="21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D61" s="43" t="s">
-        <v>237</v>
+        <v>193</v>
       </c>
       <c r="E61" s="16"/>
       <c r="F61" s="44" t="s">
@@ -5616,19 +5834,19 @@
         <v>130</v>
       </c>
       <c r="H61" s="43" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="62" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A62" s="16"/>
       <c r="B62" s="21" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="C62" s="21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D62" s="43" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E62" s="16"/>
       <c r="F62" s="44" t="s">
@@ -5638,19 +5856,19 @@
         <v>130</v>
       </c>
       <c r="H62" s="43" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
     </row>
     <row r="63" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A63" s="16"/>
       <c r="B63" s="21" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="C63" s="21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D63" s="43" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E63" s="16"/>
       <c r="F63" s="44" t="s">
@@ -5660,19 +5878,19 @@
         <v>130</v>
       </c>
       <c r="H63" s="43" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="64" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A64" s="16"/>
       <c r="B64" s="21" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="C64" s="21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D64" s="43" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E64" s="16"/>
       <c r="F64" s="44" t="s">
@@ -5682,19 +5900,19 @@
         <v>130</v>
       </c>
       <c r="H64" s="43" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A65" s="16"/>
       <c r="B65" s="21" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="C65" s="21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D65" s="43" t="s">
-        <v>198</v>
+        <v>238</v>
       </c>
       <c r="E65" s="16"/>
       <c r="F65" s="44" t="s">
@@ -5704,160 +5922,336 @@
         <v>130</v>
       </c>
       <c r="H65" s="43" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A66" s="16"/>
       <c r="B66" s="21" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="C66" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D66" s="43" t="s">
-        <v>238</v>
+        <v>48</v>
+      </c>
+      <c r="D66" s="28" t="s">
+        <v>239</v>
       </c>
       <c r="E66" s="16"/>
       <c r="F66" s="44" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="G66" s="44" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="H66" s="43" t="s">
-        <v>200</v>
+        <v>240</v>
       </c>
     </row>
     <row r="67" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A67" s="16"/>
       <c r="B67" s="21" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="C67" s="21" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D67" s="43" t="s">
-        <v>201</v>
-      </c>
-      <c r="E67" s="17"/>
+        <v>177</v>
+      </c>
+      <c r="E67" s="16"/>
       <c r="F67" s="44" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="G67" s="44" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="H67" s="43" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
     </row>
     <row r="68" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A68" s="16"/>
       <c r="B68" s="21" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C68" s="21" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D68" s="43" t="s">
-        <v>203</v>
-      </c>
-      <c r="E68" s="17"/>
+        <v>179</v>
+      </c>
+      <c r="E68" s="16"/>
       <c r="F68" s="44" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="G68" s="44" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="H68" s="43" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
     </row>
     <row r="69" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A69" s="16"/>
       <c r="B69" s="21" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="C69" s="21" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D69" s="43" t="s">
-        <v>205</v>
-      </c>
-      <c r="E69" s="17"/>
+        <v>237</v>
+      </c>
+      <c r="E69" s="16"/>
       <c r="F69" s="44" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="G69" s="44" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="H69" s="43" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
     </row>
     <row r="70" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A70" s="16"/>
       <c r="B70" s="21" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="C70" s="21" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D70" s="43" t="s">
-        <v>206</v>
-      </c>
-      <c r="E70" s="17"/>
+        <v>193</v>
+      </c>
+      <c r="E70" s="16"/>
       <c r="F70" s="44" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="G70" s="44" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="H70" s="43" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
     </row>
     <row r="71" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A71" s="16"/>
       <c r="B71" s="21" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="C71" s="21" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D71" s="43" t="s">
-        <v>208</v>
-      </c>
-      <c r="E71" s="17"/>
+        <v>194</v>
+      </c>
+      <c r="E71" s="16"/>
       <c r="F71" s="44" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="G71" s="44" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="H71" s="43" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
     </row>
     <row r="72" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A72" s="16"/>
       <c r="B72" s="21" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="C72" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D72" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="E72" s="16"/>
+      <c r="F72" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="G72" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="H72" s="43" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="16"/>
+      <c r="B73" s="21" t="s">
+        <v>441</v>
+      </c>
+      <c r="C73" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D73" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="E73" s="16"/>
+      <c r="F73" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="G73" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="H73" s="43" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="16"/>
+      <c r="B74" s="21" t="s">
+        <v>442</v>
+      </c>
+      <c r="C74" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D74" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="E74" s="16"/>
+      <c r="F74" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="G74" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="H74" s="43" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="16"/>
+      <c r="B75" s="21" t="s">
+        <v>443</v>
+      </c>
+      <c r="C75" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D75" s="43" t="s">
+        <v>201</v>
+      </c>
+      <c r="E75" s="17"/>
+      <c r="F75" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="G75" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="H75" s="43" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="16"/>
+      <c r="B76" s="21" t="s">
+        <v>444</v>
+      </c>
+      <c r="C76" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D76" s="43" t="s">
+        <v>203</v>
+      </c>
+      <c r="E76" s="17"/>
+      <c r="F76" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="G76" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="H76" s="43" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="16"/>
+      <c r="B77" s="21" t="s">
+        <v>445</v>
+      </c>
+      <c r="C77" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D77" s="43" t="s">
+        <v>205</v>
+      </c>
+      <c r="E77" s="17"/>
+      <c r="F77" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="G77" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="H77" s="43" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="16"/>
+      <c r="B78" s="21" t="s">
+        <v>446</v>
+      </c>
+      <c r="C78" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D78" s="43" t="s">
+        <v>206</v>
+      </c>
+      <c r="E78" s="17"/>
+      <c r="F78" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="G78" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="H78" s="43" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="16"/>
+      <c r="B79" s="21" t="s">
+        <v>447</v>
+      </c>
+      <c r="C79" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D79" s="43" t="s">
+        <v>208</v>
+      </c>
+      <c r="E79" s="17"/>
+      <c r="F79" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="G79" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="H79" s="43" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="16"/>
+      <c r="B80" s="21" t="s">
+        <v>448</v>
+      </c>
+      <c r="C80" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D72" s="43" t="s">
+      <c r="D80" s="43" t="s">
         <v>209</v>
       </c>
-      <c r="E72" s="17"/>
-      <c r="F72" s="44" t="s">
+      <c r="E80" s="17"/>
+      <c r="F80" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="G72" s="44" t="s">
+      <c r="G80" s="44" t="s">
         <v>142</v>
       </c>
-      <c r="H72" s="43" t="s">
+      <c r="H80" s="43" t="s">
         <v>210</v>
       </c>
     </row>
@@ -5865,6 +6259,7 @@
   <mergeCells count="1">
     <mergeCell ref="A2:H2"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -5872,10 +6267,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25333C4E-FCEB-4BCB-A95F-5DF88E54B42A}">
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:I111"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -6054,7 +6449,7 @@
     <row r="10" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
       <c r="B10" s="15" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>52</v>
@@ -6076,7 +6471,7 @@
     <row r="11" spans="1:8" ht="60" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="15" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>53</v>
@@ -6098,7 +6493,7 @@
     <row r="12" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
       <c r="B12" s="15" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>54</v>
@@ -6117,82 +6512,85 @@
         <v>245</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
-      <c r="B13" s="37" t="s">
-        <v>357</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="40" t="s">
-        <v>156</v>
-      </c>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="G13" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="H13" s="38" t="s">
-        <v>157</v>
+    <row r="13" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15" t="s">
+        <v>563</v>
+      </c>
+      <c r="C13" s="58" t="s">
+        <v>564</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="B14" s="15" t="s">
-        <v>458</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>56</v>
+        <v>565</v>
+      </c>
+      <c r="C14" s="15" t="str">
+        <f>[1]JSON!K120</f>
+        <v>InvoiceNumber</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>246</v>
+        <v>551</v>
       </c>
       <c r="E14" s="26"/>
       <c r="F14" s="26" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="54" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
       <c r="B15" s="15" t="s">
-        <v>459</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>57</v>
+        <v>565</v>
+      </c>
+      <c r="C15" s="15" t="str">
+        <f>[1]JSON!K121</f>
+        <v>ReasonCode</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>248</v>
+        <v>552</v>
       </c>
       <c r="E15" s="26"/>
       <c r="F15" s="26" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="B16" s="15" t="s">
-        <v>460</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>58</v>
+        <v>565</v>
+      </c>
+      <c r="C16" s="15" t="str">
+        <f>[1]JSON!K122</f>
+        <v>ReasonDescription</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>250</v>
+        <v>554</v>
       </c>
       <c r="E16" s="26"/>
       <c r="F16" s="26" t="s">
@@ -6202,19 +6600,20 @@
         <v>130</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
       <c r="B17" s="15" t="s">
-        <v>461</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>59</v>
+        <v>566</v>
+      </c>
+      <c r="C17" s="15" t="str">
+        <f>[1]JSON!K123</f>
+        <v>TaxPeriod</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>252</v>
+        <v>556</v>
       </c>
       <c r="E17" s="26"/>
       <c r="F17" s="26" t="s">
@@ -6224,19 +6623,20 @@
         <v>130</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="60" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
       <c r="B18" s="15" t="s">
-        <v>462</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>40</v>
+        <v>567</v>
+      </c>
+      <c r="C18" s="15" t="str">
+        <f>[1]JSON!K124</f>
+        <v>StartDate</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E18" s="26"/>
       <c r="F18" s="26" t="s">
@@ -6246,19 +6646,20 @@
         <v>130</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
       <c r="B19" s="15" t="s">
-        <v>463</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>60</v>
+        <v>568</v>
+      </c>
+      <c r="C19" s="15" t="str">
+        <f>[1]JSON!K125</f>
+        <v>EndDate</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E19" s="26"/>
       <c r="F19" s="26" t="s">
@@ -6268,19 +6669,20 @@
         <v>130</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
       <c r="B20" s="15" t="s">
-        <v>464</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>61</v>
+        <v>569</v>
+      </c>
+      <c r="C20" s="15" t="str">
+        <f>[1]JSON!K126</f>
+        <v>CorrectionMethod</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>255</v>
+        <v>557</v>
       </c>
       <c r="E20" s="26"/>
       <c r="F20" s="26" t="s">
@@ -6290,87 +6692,89 @@
         <v>130</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="37"/>
-      <c r="B21" s="37" t="s">
-        <v>358</v>
-      </c>
-      <c r="C21" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="40" t="s">
-        <v>158</v>
-      </c>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="G21" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="H21" s="38"/>
-    </row>
-    <row r="22" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15" t="s">
+        <v>570</v>
+      </c>
+      <c r="C21" s="15" t="str">
+        <f>[1]JSON!K127</f>
+        <v>CorrectionMethodDescription</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
       <c r="B22" s="15" t="s">
-        <v>465</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>63</v>
+        <v>571</v>
+      </c>
+      <c r="C22" s="15" t="str">
+        <f>[1]JSON!K128</f>
+        <v>InvoiceIssueDate</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>257</v>
+        <v>561</v>
       </c>
       <c r="E22" s="26"/>
       <c r="F22" s="26" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="G22" s="26" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="108" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15" t="s">
-        <v>466</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="G23" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="H23" s="16" t="s">
-        <v>260</v>
+        <v>562</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="37"/>
+      <c r="B23" s="37" t="s">
+        <v>357</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="G23" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="H23" s="38" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
       <c r="B24" s="15" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="E24" s="26" t="s">
-        <v>218</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="E24" s="26"/>
       <c r="F24" s="26" t="s">
         <v>132</v>
       </c>
@@ -6378,45 +6782,43 @@
         <v>130</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="54" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="B25" s="15" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="E25" s="26"/>
       <c r="F25" s="26" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="G25" s="26" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="B26" s="15" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="E26" s="26" t="s">
-        <v>218</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="E26" s="26"/>
       <c r="F26" s="26" t="s">
         <v>132</v>
       </c>
@@ -6424,45 +6826,43 @@
         <v>130</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
       <c r="B27" s="15" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="E27" s="26"/>
       <c r="F27" s="26" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="G27" s="26" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="60" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="15" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="E28" s="26" t="s">
-        <v>218</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="E28" s="26"/>
       <c r="F28" s="26" t="s">
         <v>132</v>
       </c>
@@ -6470,45 +6870,43 @@
         <v>130</v>
       </c>
       <c r="H28" s="16" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="37"/>
-      <c r="B29" s="37" t="s">
-        <v>359</v>
-      </c>
-      <c r="C29" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" s="40" t="s">
-        <v>159</v>
-      </c>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="G29" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="H29" s="38" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="15"/>
+      <c r="B29" s="15" t="s">
+        <v>457</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="G29" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="15" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="E30" s="26" t="s">
-        <v>218</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="E30" s="26"/>
       <c r="F30" s="26" t="s">
         <v>132</v>
       </c>
@@ -6516,41 +6914,39 @@
         <v>130</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15" t="s">
-        <v>473</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="G31" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="H31" s="16" t="s">
-        <v>268</v>
-      </c>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="37"/>
+      <c r="B31" s="37" t="s">
+        <v>358</v>
+      </c>
+      <c r="C31" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="G31" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="H31" s="38"/>
     </row>
     <row r="32" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
       <c r="B32" s="15" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="E32" s="26"/>
       <c r="F32" s="26" t="s">
@@ -6560,19 +6956,19 @@
         <v>130</v>
       </c>
       <c r="H32" s="16" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="108" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="15"/>
       <c r="B33" s="15" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="E33" s="26"/>
       <c r="F33" s="26" t="s">
@@ -6582,41 +6978,43 @@
         <v>130</v>
       </c>
       <c r="H33" s="16" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34" s="15"/>
       <c r="B34" s="15" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="E34" s="26"/>
+        <v>261</v>
+      </c>
+      <c r="E34" s="26" t="s">
+        <v>218</v>
+      </c>
       <c r="F34" s="26" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="G34" s="26" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="H34" s="16" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" s="15"/>
       <c r="B35" s="15" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="E35" s="26"/>
       <c r="F35" s="26" t="s">
@@ -6626,65 +7024,69 @@
         <v>130</v>
       </c>
       <c r="H35" s="16" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A36" s="15"/>
       <c r="B36" s="15" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="E36" s="26"/>
+        <v>217</v>
+      </c>
+      <c r="E36" s="26" t="s">
+        <v>218</v>
+      </c>
       <c r="F36" s="26" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="G36" s="26" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="H36" s="16" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A37" s="15"/>
       <c r="B37" s="15" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="E37" s="26"/>
       <c r="F37" s="26" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="G37" s="26" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="H37" s="16" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A38" s="15"/>
       <c r="B38" s="15" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="E38" s="26"/>
+        <v>217</v>
+      </c>
+      <c r="E38" s="26" t="s">
+        <v>218</v>
+      </c>
       <c r="F38" s="26" t="s">
         <v>132</v>
       </c>
@@ -6692,43 +7094,45 @@
         <v>130</v>
       </c>
       <c r="H38" s="16" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="15"/>
-      <c r="B39" s="15" t="s">
-        <v>481</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="G39" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="H39" s="16" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="40" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="37"/>
+      <c r="B39" s="37" t="s">
+        <v>359</v>
+      </c>
+      <c r="C39" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="E39" s="39"/>
+      <c r="F39" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="G39" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="H39" s="38" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A40" s="15"/>
       <c r="B40" s="15" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="E40" s="26"/>
+        <v>266</v>
+      </c>
+      <c r="E40" s="26" t="s">
+        <v>218</v>
+      </c>
       <c r="F40" s="26" t="s">
         <v>132</v>
       </c>
@@ -6739,16 +7143,16 @@
         <v>264</v>
       </c>
     </row>
-    <row r="41" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" s="15"/>
       <c r="B41" s="15" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="E41" s="26"/>
       <c r="F41" s="26" t="s">
@@ -6758,45 +7162,43 @@
         <v>142</v>
       </c>
       <c r="H41" s="16" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A42" s="15"/>
       <c r="B42" s="15" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="E42" s="26"/>
       <c r="F42" s="26" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="G42" s="26" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="H42" s="16" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A43" s="15"/>
       <c r="B43" s="15" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="E43" s="26" t="s">
-        <v>218</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="E43" s="26"/>
       <c r="F43" s="26" t="s">
         <v>132</v>
       </c>
@@ -6804,47 +7206,43 @@
         <v>130</v>
       </c>
       <c r="H43" s="16" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A44" s="15"/>
       <c r="B44" s="15" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="E44" s="26" t="s">
-        <v>218</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="E44" s="26"/>
       <c r="F44" s="26" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="G44" s="26" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="H44" s="16" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="45" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A45" s="15"/>
       <c r="B45" s="15" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="E45" s="26" t="s">
-        <v>218</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="E45" s="26"/>
       <c r="F45" s="26" t="s">
         <v>132</v>
       </c>
@@ -6852,71 +7250,65 @@
         <v>130</v>
       </c>
       <c r="H45" s="16" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A46" s="15"/>
       <c r="B46" s="15" t="s">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="E46" s="26" t="s">
-        <v>218</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="E46" s="26"/>
       <c r="F46" s="26" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="G46" s="26" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="H46" s="16" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A47" s="15"/>
       <c r="B47" s="15" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="E47" s="26" t="s">
-        <v>218</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="E47" s="26"/>
       <c r="F47" s="26" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G47" s="26" t="s">
         <v>130</v>
       </c>
       <c r="H47" s="16" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" s="35" customFormat="1" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A48" s="15"/>
       <c r="B48" s="15" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E48" s="26" t="s">
-        <v>218</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="E48" s="26"/>
       <c r="F48" s="26" t="s">
         <v>132</v>
       </c>
@@ -6924,64 +7316,63 @@
         <v>130</v>
       </c>
       <c r="H48" s="16" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="15"/>
+      <c r="B49" s="15" t="s">
+        <v>475</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="G49" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="H49" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="I48" s="36"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="37"/>
-      <c r="B49" s="37" t="s">
-        <v>360</v>
-      </c>
-      <c r="C49" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="D49" s="40" t="s">
-        <v>161</v>
-      </c>
-      <c r="E49" s="39"/>
-      <c r="F49" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="G49" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="H49" s="38" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A50" s="15"/>
       <c r="B50" s="15" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="E50" s="26"/>
       <c r="F50" s="26" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G50" s="26" t="s">
         <v>130</v>
       </c>
       <c r="H50" s="16" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A51" s="15"/>
       <c r="B51" s="15" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="E51" s="26"/>
       <c r="F51" s="26" t="s">
@@ -6991,19 +7382,19 @@
         <v>142</v>
       </c>
       <c r="H51" s="16" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A52" s="15"/>
       <c r="B52" s="15" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="E52" s="26"/>
       <c r="F52" s="26" t="s">
@@ -7013,87 +7404,95 @@
         <v>142</v>
       </c>
       <c r="H52" s="16" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A53" s="15"/>
       <c r="B53" s="15" t="s">
-        <v>494</v>
+        <v>479</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="E53" s="24"/>
+        <v>284</v>
+      </c>
+      <c r="E53" s="26" t="s">
+        <v>218</v>
+      </c>
       <c r="F53" s="26" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="G53" s="26" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="H53" s="16" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A54" s="15"/>
       <c r="B54" s="15" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="E54" s="26"/>
+        <v>285</v>
+      </c>
+      <c r="E54" s="26" t="s">
+        <v>218</v>
+      </c>
       <c r="F54" s="26" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="G54" s="26" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="H54" s="16" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A55" s="15"/>
       <c r="B55" s="15" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="E55" s="26"/>
+        <v>286</v>
+      </c>
+      <c r="E55" s="26" t="s">
+        <v>218</v>
+      </c>
       <c r="F55" s="26" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G55" s="26" t="s">
         <v>130</v>
       </c>
       <c r="H55" s="16" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A56" s="15"/>
       <c r="B56" s="15" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="E56" s="26"/>
+        <v>287</v>
+      </c>
+      <c r="E56" s="26" t="s">
+        <v>218</v>
+      </c>
       <c r="F56" s="26" t="s">
         <v>132</v>
       </c>
@@ -7101,43 +7500,47 @@
         <v>130</v>
       </c>
       <c r="H56" s="16" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A57" s="15"/>
       <c r="B57" s="15" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="E57" s="26"/>
+        <v>288</v>
+      </c>
+      <c r="E57" s="26" t="s">
+        <v>218</v>
+      </c>
       <c r="F57" s="26" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="G57" s="26" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="H57" s="16" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" s="35" customFormat="1" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A58" s="15"/>
       <c r="B58" s="15" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="E58" s="26"/>
+        <v>289</v>
+      </c>
+      <c r="E58" s="26" t="s">
+        <v>218</v>
+      </c>
       <c r="F58" s="26" t="s">
         <v>132</v>
       </c>
@@ -7145,113 +7548,110 @@
         <v>130</v>
       </c>
       <c r="H58" s="16" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="15"/>
-      <c r="B59" s="15" t="s">
-        <v>500</v>
-      </c>
-      <c r="C59" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="E59" s="26"/>
-      <c r="F59" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="G59" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="H59" s="16" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+      <c r="I58" s="36"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="37"/>
+      <c r="B59" s="37" t="s">
+        <v>360</v>
+      </c>
+      <c r="C59" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="D59" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="E59" s="39"/>
+      <c r="F59" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="G59" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="H59" s="38" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A60" s="15"/>
       <c r="B60" s="15" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="E60" s="26"/>
       <c r="F60" s="26" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="G60" s="26" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="H60" s="16" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A61" s="15"/>
       <c r="B61" s="15" t="s">
-        <v>502</v>
+        <v>486</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="E61" s="26" t="s">
-        <v>218</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="E61" s="26"/>
       <c r="F61" s="26" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="G61" s="26" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="H61" s="16" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A62" s="15"/>
       <c r="B62" s="15" t="s">
-        <v>503</v>
+        <v>487</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="E62" s="26" t="s">
-        <v>218</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="E62" s="26"/>
       <c r="F62" s="26" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="G62" s="26" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="H62" s="16" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A63" s="15"/>
       <c r="B63" s="15" t="s">
-        <v>504</v>
+        <v>488</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="E63" s="26"/>
+        <v>294</v>
+      </c>
+      <c r="E63" s="24"/>
       <c r="F63" s="26" t="s">
         <v>141</v>
       </c>
@@ -7259,197 +7659,201 @@
         <v>142</v>
       </c>
       <c r="H63" s="16" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A64" s="15"/>
       <c r="B64" s="15" t="s">
-        <v>505</v>
+        <v>489</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="E64" s="26"/>
       <c r="F64" s="26" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="G64" s="26" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="H64" s="16" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
     </row>
     <row r="65" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A65" s="15"/>
       <c r="B65" s="15" t="s">
-        <v>506</v>
+        <v>490</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="E65" s="26"/>
       <c r="F65" s="26" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G65" s="26" t="s">
         <v>130</v>
       </c>
       <c r="H65" s="16" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
     </row>
     <row r="66" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A66" s="15"/>
       <c r="B66" s="15" t="s">
-        <v>507</v>
+        <v>491</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="E66" s="26"/>
       <c r="F66" s="26" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="G66" s="26" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="H66" s="16" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
     </row>
     <row r="67" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A67" s="15"/>
       <c r="B67" s="15" t="s">
-        <v>508</v>
+        <v>492</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="E67" s="26"/>
       <c r="F67" s="26" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="G67" s="26" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="H67" s="16" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
     </row>
     <row r="68" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A68" s="15"/>
       <c r="B68" s="15" t="s">
-        <v>509</v>
+        <v>493</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="E68" s="26"/>
       <c r="F68" s="26" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="G68" s="26" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="H68" s="16" t="s">
-        <v>276</v>
+        <v>240</v>
       </c>
     </row>
     <row r="69" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A69" s="15"/>
       <c r="B69" s="15" t="s">
-        <v>510</v>
+        <v>494</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="E69" s="26"/>
       <c r="F69" s="26" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G69" s="26" t="s">
         <v>130</v>
       </c>
       <c r="H69" s="16" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A70" s="15"/>
       <c r="B70" s="15" t="s">
-        <v>511</v>
+        <v>495</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>279</v>
+        <v>306</v>
       </c>
       <c r="E70" s="26"/>
       <c r="F70" s="26" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="G70" s="26" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="H70" s="16" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A71" s="15"/>
       <c r="B71" s="15" t="s">
-        <v>512</v>
+        <v>496</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E71" s="26"/>
+        <v>308</v>
+      </c>
+      <c r="E71" s="26" t="s">
+        <v>218</v>
+      </c>
       <c r="F71" s="26" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="G71" s="26" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="H71" s="16" t="s">
-        <v>312</v>
+        <v>264</v>
       </c>
     </row>
     <row r="72" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A72" s="15"/>
       <c r="B72" s="15" t="s">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="E72" s="26"/>
+        <v>309</v>
+      </c>
+      <c r="E72" s="26" t="s">
+        <v>218</v>
+      </c>
       <c r="F72" s="26" t="s">
         <v>132</v>
       </c>
@@ -7457,111 +7861,109 @@
         <v>130</v>
       </c>
       <c r="H72" s="16" t="s">
-        <v>313</v>
+        <v>264</v>
       </c>
     </row>
     <row r="73" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A73" s="15"/>
       <c r="B73" s="15" t="s">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="E73" s="26" t="s">
-        <v>218</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="E73" s="26"/>
       <c r="F73" s="26" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="G73" s="26" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="H73" s="16" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A74" s="15"/>
       <c r="B74" s="15" t="s">
-        <v>515</v>
+        <v>499</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>317</v>
+        <v>269</v>
       </c>
       <c r="E74" s="26"/>
       <c r="F74" s="26" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G74" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="H74" s="16"/>
+      <c r="H74" s="16" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="75" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A75" s="15"/>
       <c r="B75" s="15" t="s">
-        <v>516</v>
+        <v>500</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="E75" s="26"/>
       <c r="F75" s="26" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G75" s="26" t="s">
         <v>130</v>
       </c>
       <c r="H75" s="16" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="108" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A76" s="15"/>
       <c r="B76" s="15" t="s">
-        <v>532</v>
+        <v>501</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="E76" s="26"/>
       <c r="F76" s="26" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="G76" s="26" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="H76" s="16" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A77" s="15"/>
       <c r="B77" s="15" t="s">
-        <v>533</v>
+        <v>502</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="E77" s="26" t="s">
-        <v>218</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="E77" s="26"/>
       <c r="F77" s="26" t="s">
         <v>132</v>
       </c>
@@ -7569,135 +7971,133 @@
         <v>130</v>
       </c>
       <c r="H77" s="16" t="s">
-        <v>264</v>
+        <v>313</v>
       </c>
     </row>
     <row r="78" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A78" s="15"/>
       <c r="B78" s="15" t="s">
-        <v>534</v>
+        <v>503</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>263</v>
+        <v>314</v>
       </c>
       <c r="E78" s="26"/>
       <c r="F78" s="26" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="G78" s="26" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="H78" s="16" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A79" s="15"/>
       <c r="B79" s="15" t="s">
-        <v>535</v>
+        <v>504</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="E79" s="26" t="s">
-        <v>218</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="E79" s="26"/>
       <c r="F79" s="26" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G79" s="26" t="s">
         <v>130</v>
       </c>
       <c r="H79" s="16" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
     </row>
     <row r="80" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A80" s="15"/>
       <c r="B80" s="15" t="s">
-        <v>536</v>
+        <v>505</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="E80" s="26"/>
       <c r="F80" s="26" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="G80" s="26" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="H80" s="16" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A81" s="15"/>
       <c r="B81" s="15" t="s">
-        <v>537</v>
+        <v>506</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="E81" s="26" t="s">
-        <v>218</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="E81" s="26"/>
       <c r="F81" s="26" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="G81" s="26" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="H81" s="16" t="s">
-        <v>264</v>
+        <v>312</v>
       </c>
     </row>
     <row r="82" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A82" s="15"/>
       <c r="B82" s="15" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="C82" s="15" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>318</v>
+        <v>281</v>
       </c>
       <c r="E82" s="26"/>
       <c r="F82" s="26" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="G82" s="26" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="H82" s="16" t="s">
-        <v>249</v>
+        <v>313</v>
       </c>
     </row>
     <row r="83" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A83" s="15"/>
       <c r="B83" s="15" t="s">
-        <v>538</v>
+        <v>508</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="E83" s="26"/>
+        <v>316</v>
+      </c>
+      <c r="E83" s="26" t="s">
+        <v>218</v>
+      </c>
       <c r="F83" s="26" t="s">
         <v>132</v>
       </c>
@@ -7705,19 +8105,19 @@
         <v>130</v>
       </c>
       <c r="H83" s="16" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A84" s="15"/>
       <c r="B84" s="15" t="s">
-        <v>539</v>
+        <v>509</v>
       </c>
       <c r="C84" s="15" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>252</v>
+        <v>317</v>
       </c>
       <c r="E84" s="26"/>
       <c r="F84" s="26" t="s">
@@ -7726,86 +8126,86 @@
       <c r="G84" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="H84" s="16" t="s">
-        <v>247</v>
-      </c>
+      <c r="H84" s="16"/>
     </row>
     <row r="85" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A85" s="15"/>
       <c r="B85" s="15" t="s">
-        <v>540</v>
+        <v>510</v>
       </c>
       <c r="C85" s="15" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>319</v>
+        <v>257</v>
       </c>
       <c r="E85" s="26"/>
       <c r="F85" s="26" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="G85" s="26" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="H85" s="16" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="37"/>
-      <c r="B86" s="37" t="s">
-        <v>361</v>
-      </c>
-      <c r="C86" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="D86" s="40" t="s">
-        <v>163</v>
-      </c>
-      <c r="E86" s="39"/>
-      <c r="F86" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="G86" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="H86" s="38" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="108" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="15"/>
+      <c r="B86" s="15" t="s">
+        <v>526</v>
+      </c>
+      <c r="C86" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E86" s="26"/>
+      <c r="F86" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="G86" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="H86" s="16" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A87" s="15"/>
       <c r="B87" s="15" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="E87" s="26"/>
+        <v>261</v>
+      </c>
+      <c r="E87" s="26" t="s">
+        <v>218</v>
+      </c>
       <c r="F87" s="26" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G87" s="26" t="s">
         <v>130</v>
       </c>
       <c r="H87" s="16" t="s">
-        <v>321</v>
+        <v>264</v>
       </c>
     </row>
     <row r="88" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A88" s="15"/>
       <c r="B88" s="15" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>322</v>
+        <v>263</v>
       </c>
       <c r="E88" s="26"/>
       <c r="F88" s="26" t="s">
@@ -7815,21 +8215,23 @@
         <v>130</v>
       </c>
       <c r="H88" s="16" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A89" s="15"/>
       <c r="B89" s="15" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="C89" s="15" t="s">
-        <v>109</v>
+        <v>37</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="E89" s="26"/>
+        <v>217</v>
+      </c>
+      <c r="E89" s="26" t="s">
+        <v>218</v>
+      </c>
       <c r="F89" s="26" t="s">
         <v>132</v>
       </c>
@@ -7837,129 +8239,131 @@
         <v>130</v>
       </c>
       <c r="H89" s="16" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A90" s="15"/>
       <c r="B90" s="15" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>325</v>
+        <v>265</v>
       </c>
       <c r="E90" s="26"/>
       <c r="F90" s="26" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="G90" s="26" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="H90" s="16" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A91" s="15"/>
       <c r="B91" s="15" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="C91" s="15" t="s">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="E91" s="26"/>
+        <v>217</v>
+      </c>
+      <c r="E91" s="26" t="s">
+        <v>218</v>
+      </c>
       <c r="F91" s="26" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="G91" s="26" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="H91" s="16" t="s">
-        <v>328</v>
+        <v>264</v>
       </c>
     </row>
     <row r="92" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A92" s="15"/>
       <c r="B92" s="15" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="C92" s="15" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="E92" s="26"/>
       <c r="F92" s="26" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="G92" s="26" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="H92" s="16" t="s">
-        <v>330</v>
+        <v>249</v>
       </c>
     </row>
     <row r="93" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A93" s="15"/>
       <c r="B93" s="15" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="C93" s="15" t="s">
-        <v>113</v>
+        <v>58</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>331</v>
+        <v>250</v>
       </c>
       <c r="E93" s="26"/>
       <c r="F93" s="26" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="G93" s="26" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="H93" s="16" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="37"/>
-      <c r="B94" s="37" t="s">
-        <v>362</v>
-      </c>
-      <c r="C94" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="D94" s="40" t="s">
-        <v>165</v>
-      </c>
-      <c r="E94" s="39"/>
-      <c r="F94" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="G94" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="H94" s="38" t="s">
-        <v>166</v>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="15"/>
+      <c r="B94" s="15" t="s">
+        <v>533</v>
+      </c>
+      <c r="C94" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E94" s="26"/>
+      <c r="F94" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="G94" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="H94" s="16" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="95" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A95" s="15"/>
       <c r="B95" s="15" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="C95" s="15" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="E95" s="26"/>
       <c r="F95" s="26" t="s">
@@ -7969,65 +8373,65 @@
         <v>142</v>
       </c>
       <c r="H95" s="16" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="15"/>
-      <c r="B96" s="15" t="s">
-        <v>526</v>
-      </c>
-      <c r="C96" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="E96" s="26"/>
-      <c r="F96" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="G96" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="H96" s="16" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="37"/>
+      <c r="B96" s="37" t="s">
+        <v>361</v>
+      </c>
+      <c r="C96" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="D96" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="E96" s="39"/>
+      <c r="F96" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="G96" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="H96" s="38" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A97" s="15"/>
       <c r="B97" s="15" t="s">
-        <v>527</v>
+        <v>512</v>
       </c>
       <c r="C97" s="15" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="E97" s="26"/>
       <c r="F97" s="26" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="G97" s="26" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="H97" s="16" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A98" s="15"/>
       <c r="B98" s="15" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="C98" s="15" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="E98" s="24"/>
+        <v>322</v>
+      </c>
+      <c r="E98" s="26"/>
       <c r="F98" s="26" t="s">
         <v>132</v>
       </c>
@@ -8035,72 +8439,292 @@
         <v>130</v>
       </c>
       <c r="H98" s="16" t="s">
-        <v>339</v>
+        <v>247</v>
       </c>
     </row>
     <row r="99" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A99" s="15"/>
       <c r="B99" s="15" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
       <c r="C99" s="15" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c r="E99" s="26"/>
       <c r="F99" s="26" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="G99" s="26" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="H99" s="16" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A100" s="15"/>
       <c r="B100" s="15" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
       <c r="C100" s="15" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="E100" s="26"/>
       <c r="F100" s="26" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="G100" s="26" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="H100" s="16" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A101" s="15"/>
       <c r="B101" s="15" t="s">
-        <v>531</v>
+        <v>516</v>
       </c>
       <c r="C101" s="15" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="E101" s="26"/>
       <c r="F101" s="26" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="G101" s="26" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="H101" s="16" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="15"/>
+      <c r="B102" s="15" t="s">
+        <v>517</v>
+      </c>
+      <c r="C102" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="E102" s="26"/>
+      <c r="F102" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="G102" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="H102" s="16" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="15"/>
+      <c r="B103" s="15" t="s">
+        <v>518</v>
+      </c>
+      <c r="C103" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="E103" s="26"/>
+      <c r="F103" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="G103" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="H103" s="16" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="37"/>
+      <c r="B104" s="37" t="s">
+        <v>362</v>
+      </c>
+      <c r="C104" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="D104" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="E104" s="39"/>
+      <c r="F104" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="G104" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="H104" s="38" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="15"/>
+      <c r="B105" s="15" t="s">
+        <v>519</v>
+      </c>
+      <c r="C105" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="E105" s="26"/>
+      <c r="F105" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="G105" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="H105" s="16" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="15"/>
+      <c r="B106" s="15" t="s">
+        <v>520</v>
+      </c>
+      <c r="C106" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E106" s="26"/>
+      <c r="F106" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="G106" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="H106" s="16" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="15"/>
+      <c r="B107" s="15" t="s">
+        <v>521</v>
+      </c>
+      <c r="C107" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E107" s="26"/>
+      <c r="F107" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="G107" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="H107" s="16" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="15"/>
+      <c r="B108" s="15" t="s">
+        <v>522</v>
+      </c>
+      <c r="C108" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="E108" s="24"/>
+      <c r="F108" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="G108" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="H108" s="16" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="15"/>
+      <c r="B109" s="15" t="s">
+        <v>523</v>
+      </c>
+      <c r="C109" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="E109" s="26"/>
+      <c r="F109" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="G109" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="H109" s="16" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="15"/>
+      <c r="B110" s="15" t="s">
+        <v>524</v>
+      </c>
+      <c r="C110" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="E110" s="26"/>
+      <c r="F110" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="G110" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="H110" s="16" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="15"/>
+      <c r="B111" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="C111" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="E111" s="26"/>
+      <c r="F111" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="G111" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="H111" s="16" t="s">
         <v>344</v>
       </c>
     </row>
@@ -8114,6 +8738,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010059947A54AABC264B9B6A1395610EB9E4" ma:contentTypeVersion="4" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="039196c1875697d49709999e09f36296">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="669b3db3-d5a4-4d30-a460-f1a7bf62d82d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9472c2359e272d42a2ac2df94db4dd7c" ns2:_="">
     <xsd:import namespace="669b3db3-d5a4-4d30-a460-f1a7bf62d82d"/>
@@ -8257,22 +8896,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7511AB4F-EDCE-4C8F-9114-F29EE1FED04D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DACEA6D3-E19D-4B7E-B8E4-FC2FFCAA4342}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7010204-F282-4DB8-BAA4-6B407FACE274}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8288,21 +8929,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7511AB4F-EDCE-4C8F-9114-F29EE1FED04D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DACEA6D3-E19D-4B7E-B8E4-FC2FFCAA4342}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Guia_Api_Facturas_Generix.xlsx
+++ b/Guia_Api_Facturas_Generix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://generixgrouponline-my.sharepoint.com/personal/icastro_generixgroup_com/Documents/Documentos/WORKSPACE/CREA Y CRECE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="106" documentId="13_ncr:1_{010EF652-DD21-44E7-ABE9-A00A0A7ADC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44FF1F54-8098-4CAD-8DCC-5D3E6BA3355C}"/>
+  <xr:revisionPtr revIDLastSave="127" documentId="13_ncr:1_{010EF652-DD21-44E7-ABE9-A00A0A7ADC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EDE44059-87B8-40D8-88CC-4E2279228ED8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Esquema General" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,6 @@
     <sheet name="Grupo 2.1" sheetId="4" r:id="rId3"/>
     <sheet name="Grupo 2.2" sheetId="5" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1523" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="578">
   <si>
     <t>JSON</t>
   </si>
@@ -1695,9 +1692,6 @@
     <t>2.1.1.4.2.6</t>
   </si>
   <si>
-    <t>2.1.1.4.2</t>
-  </si>
-  <si>
     <t>2.1.1.4.3.</t>
   </si>
   <si>
@@ -1787,6 +1781,27 @@
   </si>
   <si>
     <t>2.2.1.4.7.</t>
+  </si>
+  <si>
+    <t>2.1.1.4.2.7</t>
+  </si>
+  <si>
+    <t>ReasonCode</t>
+  </si>
+  <si>
+    <t>ReasonDescription</t>
+  </si>
+  <si>
+    <t>TaxPeriod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CorrectionMethod </t>
+  </si>
+  <si>
+    <t>CorrectionMethodDescription</t>
+  </si>
+  <si>
+    <t>InvoiceIssueDate</t>
   </si>
 </sst>
 </file>
@@ -1942,7 +1957,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2102,9 +2117,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2350,116 +2362,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="JSON"/>
-      <sheetName val="Formato JSON"/>
-      <sheetName val="Grupo1"/>
-      <sheetName val="Grupo 2.1"/>
-      <sheetName val="Grupo 2.2"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="63">
-          <cell r="K63" t="str">
-            <v>CorporateName</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="K64" t="str">
-            <v>RegistrationData</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="K65" t="str">
-            <v>Book</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="K66" t="str">
-            <v>RegisterOfCompaniesLocation</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="K67" t="str">
-            <v>Sheet</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="K68" t="str">
-            <v>Folio</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="K69" t="str">
-            <v>Section</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="K70" t="str">
-            <v>Volume</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="K120" t="str">
-            <v>InvoiceNumber</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="K121" t="str">
-            <v>ReasonCode</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="K122" t="str">
-            <v>ReasonDescription</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="K123" t="str">
-            <v>TaxPeriod</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="K124" t="str">
-            <v>StartDate</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="K125" t="str">
-            <v>EndDate</v>
-          </cell>
-        </row>
-        <row r="126">
-          <cell r="K126" t="str">
-            <v>CorrectionMethod</v>
-          </cell>
-        </row>
-        <row r="127">
-          <cell r="K127" t="str">
-            <v>CorrectionMethodDescription</v>
-          </cell>
-        </row>
-        <row r="128">
-          <cell r="K128" t="str">
-            <v>InvoiceIssueDate</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2782,7 +2684,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -3269,22 +3171,22 @@
       <c r="E27" s="29"/>
       <c r="F27" s="29"/>
     </row>
-    <row r="28" spans="1:8" ht="11.65" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D28" s="32"/>
     </row>
-    <row r="29" spans="1:8" ht="11.65" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D29" s="32"/>
     </row>
-    <row r="30" spans="1:8" ht="11.65" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D30" s="32"/>
     </row>
-    <row r="31" spans="1:8" ht="11.65" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D31" s="32"/>
     </row>
-    <row r="32" spans="1:8" ht="11.65" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D32" s="32"/>
     </row>
-    <row r="33" spans="4:4" ht="11.65" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D33" s="32"/>
     </row>
   </sheetData>
@@ -3305,8 +3207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D4BC373-9472-45A7-8E38-AC686175D042}">
   <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H2"/>
+    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -4519,8 +4421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B13C99-BA63-4783-81FE-9F858A27BFD2}">
   <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView showGridLines="0" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -5068,36 +4970,35 @@
     <row r="27" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A27" s="16"/>
       <c r="B27" s="20" t="s">
-        <v>541</v>
-      </c>
-      <c r="C27" s="20" t="str">
-        <f>[1]JSON!K63</f>
-        <v>CorporateName</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="E27" s="14"/>
-      <c r="F27" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="G27" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="H27" s="15" t="s">
-        <v>182</v>
+        <v>412</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="E27" s="17"/>
+      <c r="F27" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="G27" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="H27" s="43" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="28" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A28" s="16"/>
       <c r="B28" s="20" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E28" s="17"/>
       <c r="F28" s="44" t="s">
@@ -5107,39 +5008,38 @@
         <v>130</v>
       </c>
       <c r="H28" s="43" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A29" s="16"/>
       <c r="B29" s="20" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="43" t="s">
-        <v>179</v>
-      </c>
-      <c r="E29" s="17"/>
-      <c r="F29" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="G29" s="44" t="s">
-        <v>130</v>
-      </c>
-      <c r="H29" s="43" t="s">
-        <v>180</v>
+        <v>13</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="E29" s="14"/>
+      <c r="F29" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="G29" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A30" s="16"/>
       <c r="B30" s="20" t="s">
-        <v>414</v>
-      </c>
-      <c r="C30" s="20" t="str">
-        <f>[1]JSON!K64</f>
-        <v>RegistrationData</v>
+        <v>535</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>14</v>
       </c>
       <c r="D30" s="25" t="s">
         <v>183</v>
@@ -5158,11 +5058,10 @@
     <row r="31" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A31" s="16"/>
       <c r="B31" s="20" t="s">
-        <v>535</v>
-      </c>
-      <c r="C31" s="20" t="str">
-        <f>[1]JSON!K65</f>
-        <v>Book</v>
+        <v>536</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>15</v>
       </c>
       <c r="D31" s="25" t="s">
         <v>185</v>
@@ -5181,11 +5080,10 @@
     <row r="32" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16"/>
       <c r="B32" s="20" t="s">
-        <v>536</v>
-      </c>
-      <c r="C32" s="20" t="str">
-        <f>[1]JSON!K66</f>
-        <v>RegisterOfCompaniesLocation</v>
+        <v>537</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>16</v>
       </c>
       <c r="D32" s="25" t="s">
         <v>186</v>
@@ -5204,11 +5102,10 @@
     <row r="33" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A33" s="16"/>
       <c r="B33" s="20" t="s">
-        <v>537</v>
-      </c>
-      <c r="C33" s="20" t="str">
-        <f>[1]JSON!K67</f>
-        <v>Sheet</v>
+        <v>538</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>17</v>
       </c>
       <c r="D33" s="25" t="s">
         <v>187</v>
@@ -5227,11 +5124,10 @@
     <row r="34" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16"/>
       <c r="B34" s="20" t="s">
-        <v>538</v>
-      </c>
-      <c r="C34" s="20" t="str">
-        <f>[1]JSON!K68</f>
-        <v>Folio</v>
+        <v>539</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>18</v>
       </c>
       <c r="D34" s="25" t="s">
         <v>188</v>
@@ -5250,11 +5146,10 @@
     <row r="35" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A35" s="16"/>
       <c r="B35" s="20" t="s">
-        <v>539</v>
-      </c>
-      <c r="C35" s="20" t="str">
-        <f>[1]JSON!K69</f>
-        <v>Section</v>
+        <v>540</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>19</v>
       </c>
       <c r="D35" s="25" t="s">
         <v>189</v>
@@ -5273,11 +5168,10 @@
     <row r="36" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A36" s="16"/>
       <c r="B36" s="20" t="s">
-        <v>540</v>
-      </c>
-      <c r="C36" s="20" t="str">
-        <f>[1]JSON!K70</f>
-        <v>Volume</v>
+        <v>571</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>20</v>
       </c>
       <c r="D36" s="25" t="s">
         <v>190</v>
@@ -5296,7 +5190,7 @@
     <row r="37" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A37" s="16"/>
       <c r="B37" s="20" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C37" s="20" t="s">
         <v>21</v>
@@ -5428,7 +5322,7 @@
     <row r="43" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A43" s="16"/>
       <c r="B43" s="20" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C43" s="20" t="s">
         <v>27</v>
@@ -5450,7 +5344,7 @@
     <row r="44" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A44" s="16"/>
       <c r="B44" s="20" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C44" s="20" t="s">
         <v>28</v>
@@ -5472,7 +5366,7 @@
     <row r="45" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A45" s="16"/>
       <c r="B45" s="20" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C45" s="20" t="s">
         <v>29</v>
@@ -5494,7 +5388,7 @@
     <row r="46" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A46" s="16"/>
       <c r="B46" s="20" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C46" s="20" t="s">
         <v>30</v>
@@ -5516,7 +5410,7 @@
     <row r="47" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A47" s="16"/>
       <c r="B47" s="20" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C47" s="20" t="s">
         <v>31</v>
@@ -5538,7 +5432,7 @@
     <row r="48" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A48" s="16"/>
       <c r="B48" s="20" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C48" s="20" t="s">
         <v>32</v>
@@ -6269,8 +6163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25333C4E-FCEB-4BCB-A95F-5DF88E54B42A}">
   <dimension ref="A1:I111"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -6515,13 +6409,13 @@
     <row r="13" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
       <c r="B13" s="15" t="s">
+        <v>562</v>
+      </c>
+      <c r="C13" s="28" t="s">
         <v>563</v>
       </c>
-      <c r="C13" s="58" t="s">
-        <v>564</v>
-      </c>
       <c r="D13" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E13" s="26"/>
       <c r="F13" s="26" t="s">
@@ -6531,20 +6425,19 @@
         <v>142</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="B14" s="15" t="s">
-        <v>565</v>
-      </c>
-      <c r="C14" s="15" t="str">
-        <f>[1]JSON!K120</f>
-        <v>InvoiceNumber</v>
+        <v>564</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>52</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E14" s="26"/>
       <c r="F14" s="26" t="s">
@@ -6560,14 +6453,13 @@
     <row r="15" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
       <c r="B15" s="15" t="s">
-        <v>565</v>
-      </c>
-      <c r="C15" s="15" t="str">
-        <f>[1]JSON!K121</f>
-        <v>ReasonCode</v>
+        <v>564</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>572</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E15" s="26"/>
       <c r="F15" s="26" t="s">
@@ -6577,20 +6469,19 @@
         <v>130</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="B16" s="15" t="s">
-        <v>565</v>
-      </c>
-      <c r="C16" s="15" t="str">
-        <f>[1]JSON!K122</f>
-        <v>ReasonDescription</v>
+        <v>564</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>573</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E16" s="26"/>
       <c r="F16" s="26" t="s">
@@ -6600,20 +6491,19 @@
         <v>130</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
       <c r="B17" s="15" t="s">
-        <v>566</v>
-      </c>
-      <c r="C17" s="15" t="str">
-        <f>[1]JSON!K123</f>
-        <v>TaxPeriod</v>
+        <v>565</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>574</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E17" s="26"/>
       <c r="F17" s="26" t="s">
@@ -6629,11 +6519,10 @@
     <row r="18" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
       <c r="B18" s="15" t="s">
-        <v>567</v>
-      </c>
-      <c r="C18" s="15" t="str">
-        <f>[1]JSON!K124</f>
-        <v>StartDate</v>
+        <v>566</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>250</v>
@@ -6652,11 +6541,10 @@
     <row r="19" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
       <c r="B19" s="15" t="s">
-        <v>568</v>
-      </c>
-      <c r="C19" s="15" t="str">
-        <f>[1]JSON!K125</f>
-        <v>EndDate</v>
+        <v>567</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>59</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>252</v>
@@ -6675,14 +6563,13 @@
     <row r="20" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
       <c r="B20" s="15" t="s">
-        <v>569</v>
-      </c>
-      <c r="C20" s="15" t="str">
-        <f>[1]JSON!K126</f>
-        <v>CorrectionMethod</v>
+        <v>568</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>575</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E20" s="26"/>
       <c r="F20" s="26" t="s">
@@ -6692,20 +6579,19 @@
         <v>130</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
       <c r="B21" s="15" t="s">
-        <v>570</v>
-      </c>
-      <c r="C21" s="15" t="str">
-        <f>[1]JSON!K127</f>
-        <v>CorrectionMethodDescription</v>
+        <v>569</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>576</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E21" s="26"/>
       <c r="F21" s="26" t="s">
@@ -6715,20 +6601,19 @@
         <v>130</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
       <c r="B22" s="15" t="s">
-        <v>571</v>
-      </c>
-      <c r="C22" s="15" t="str">
-        <f>[1]JSON!K128</f>
-        <v>InvoiceIssueDate</v>
+        <v>570</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>577</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E22" s="26"/>
       <c r="F22" s="26" t="s">
@@ -6738,7 +6623,7 @@
         <v>142</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">

--- a/Guia_Api_Facturas_Generix.xlsx
+++ b/Guia_Api_Facturas_Generix.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://generixgrouponline-my.sharepoint.com/personal/icastro_generixgroup_com/Documents/Documentos/WORKSPACE/CREA Y CRECE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://generixgrouponline-my.sharepoint.com/personal/layuso_generixgroup_com/Documents/Documentos/factura/Genericos CYC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="127" documentId="13_ncr:1_{010EF652-DD21-44E7-ABE9-A00A0A7ADC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EDE44059-87B8-40D8-88CC-4E2279228ED8}"/>
+  <xr:revisionPtr revIDLastSave="131" documentId="13_ncr:1_{010EF652-DD21-44E7-ABE9-A00A0A7ADC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B511AA9-409A-4E3C-A09E-51643FD1E3C3}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Esquema General" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1552" uniqueCount="585">
   <si>
     <t>JSON</t>
   </si>
@@ -378,9 +378,6 @@
   </si>
   <si>
     <t>IBAN</t>
-  </si>
-  <si>
-    <t>BankCode</t>
   </si>
   <si>
     <t>AdditionalData</t>
@@ -1060,9 +1057,6 @@
     <t>TextMin5Max34Type string positions: 5-34</t>
   </si>
   <si>
-    <t>Código de la entidad financiera.</t>
-  </si>
-  <si>
     <t>Documentos asociados. Identificación de documentos Emisor/Receptor.</t>
   </si>
   <si>
@@ -1314,21 +1308,6 @@
     <t>2.1.1.4.2.</t>
   </si>
   <si>
-    <t>2.1.1.4.3.1.</t>
-  </si>
-  <si>
-    <t>2.1.1.4.3.2.</t>
-  </si>
-  <si>
-    <t>2.1.1.4.3.3.</t>
-  </si>
-  <si>
-    <t>2.1.1.4.3.4.</t>
-  </si>
-  <si>
-    <t>2.1.1.4.3.5.</t>
-  </si>
-  <si>
     <t>2.1.2.1.</t>
   </si>
   <si>
@@ -1672,24 +1651,6 @@
   </si>
   <si>
     <t>2.2.5.1.15.</t>
-  </si>
-  <si>
-    <t>2.1.1.4.2.1</t>
-  </si>
-  <si>
-    <t>2.1.1.4.2.2</t>
-  </si>
-  <si>
-    <t>2.1.1.4.2.3</t>
-  </si>
-  <si>
-    <t>2.1.1.4.2.4</t>
-  </si>
-  <si>
-    <t>2.1.1.4.2.5</t>
-  </si>
-  <si>
-    <t>2.1.1.4.2.6</t>
   </si>
   <si>
     <t>2.1.1.4.3.</t>
@@ -1783,9 +1744,6 @@
     <t>2.2.1.4.7.</t>
   </si>
   <si>
-    <t>2.1.1.4.2.7</t>
-  </si>
-  <si>
     <t>ReasonCode</t>
   </si>
   <si>
@@ -1802,6 +1760,69 @@
   </si>
   <si>
     <t>InvoiceIssueDate</t>
+  </si>
+  <si>
+    <t>2.2.6.1.4.2.</t>
+  </si>
+  <si>
+    <t>BIC</t>
+  </si>
+  <si>
+    <t>Código SWIFT. Será obligatorio rellenar las 11 posiciones, utilizando los caracteres XXX cuando no se informe de la sucursal.</t>
+  </si>
+  <si>
+    <t>BICType string positions: 11</t>
+  </si>
+  <si>
+    <t>PaymentReconciliationReferenc e</t>
+  </si>
+  <si>
+    <t>Referencia expresa del pago. Dato que precisa el Emisor para conciliar los pagos con cada factura.</t>
+  </si>
+  <si>
+    <t>TradeName</t>
+  </si>
+  <si>
+    <t>Nombre Comercial.</t>
+  </si>
+  <si>
+    <t>2.1.1.4.3.1</t>
+  </si>
+  <si>
+    <t>2.1.1.4.3.2</t>
+  </si>
+  <si>
+    <t>2.1.1.4.3.3</t>
+  </si>
+  <si>
+    <t>2.1.1.4.3.4</t>
+  </si>
+  <si>
+    <t>2.1.1.4.3.5</t>
+  </si>
+  <si>
+    <t>2.1.1.4.3.6</t>
+  </si>
+  <si>
+    <t>2.1.1.4.3.7</t>
+  </si>
+  <si>
+    <t>2.1.1.4.5.</t>
+  </si>
+  <si>
+    <t>2.1.1.4.5.1.</t>
+  </si>
+  <si>
+    <t>2.1.1.4.5.2.</t>
+  </si>
+  <si>
+    <t>2.1.1.4.5.3.</t>
+  </si>
+  <si>
+    <t>2.1.1.4.5.4.</t>
+  </si>
+  <si>
+    <t>2.1.1.4.5.5.</t>
   </si>
 </sst>
 </file>
@@ -2683,8 +2704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -2716,22 +2737,22 @@
     <row r="3" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
       <c r="B3" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="D3" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="E3" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="F3" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="G3" s="11" t="s">
         <v>126</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>127</v>
       </c>
       <c r="I3" s="28"/>
     </row>
@@ -2742,308 +2763,308 @@
         <v>1</v>
       </c>
       <c r="D4" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="E4" s="26" t="s">
-        <v>129</v>
-      </c>
       <c r="F4" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G4" s="16"/>
     </row>
     <row r="5" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="53"/>
       <c r="B5" s="54" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C5" s="54" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="55" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E5" s="53" t="s">
+        <v>131</v>
+      </c>
+      <c r="F5" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="G5" s="56" t="s">
         <v>132</v>
-      </c>
-      <c r="F5" s="53" t="s">
-        <v>130</v>
-      </c>
-      <c r="G5" s="56" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="26"/>
       <c r="B6" s="15" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="G6" s="16" t="s">
         <v>134</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>135</v>
       </c>
       <c r="H6" s="29"/>
     </row>
     <row r="7" spans="1:9" ht="48" x14ac:dyDescent="0.25">
       <c r="A7" s="26"/>
       <c r="B7" s="15" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="G7" s="16" t="s">
         <v>136</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="48" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="15" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="G8" s="16" t="s">
         <v>138</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="26"/>
       <c r="B9" s="15" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="E9" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="F9" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="G9" s="16" t="s">
         <v>142</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="26"/>
       <c r="B10" s="15" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>33</v>
       </c>
       <c r="D10" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="G10" s="16" t="s">
         <v>144</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="53"/>
       <c r="B11" s="54" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C11" s="54" t="s">
         <v>41</v>
       </c>
       <c r="D11" s="55" t="s">
+        <v>145</v>
+      </c>
+      <c r="E11" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="F11" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="G11" s="56" t="s">
         <v>146</v>
-      </c>
-      <c r="E11" s="53" t="s">
-        <v>129</v>
-      </c>
-      <c r="F11" s="53" t="s">
-        <v>130</v>
-      </c>
-      <c r="G11" s="56" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="26"/>
       <c r="B12" s="15" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>42</v>
       </c>
       <c r="D12" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="G12" s="16" t="s">
         <v>148</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="26"/>
       <c r="B13" s="15" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>43</v>
       </c>
       <c r="D13" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="G13" s="16" t="s">
         <v>150</v>
-      </c>
-      <c r="E13" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="F13" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="26"/>
       <c r="B14" s="15" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>49</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="26"/>
       <c r="B15" s="15" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>50</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="26"/>
       <c r="B16" s="15" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>51</v>
       </c>
       <c r="D16" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="G16" s="16" t="s">
         <v>154</v>
-      </c>
-      <c r="E16" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="F16" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>155</v>
       </c>
       <c r="H16" s="29"/>
     </row>
     <row r="17" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="26"/>
       <c r="B17" s="15" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>55</v>
       </c>
       <c r="D17" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="G17" s="16" t="s">
         <v>156</v>
-      </c>
-      <c r="E17" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="F17" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>157</v>
       </c>
       <c r="H17" s="29"/>
     </row>
     <row r="18" spans="1:8" ht="11.65" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="26"/>
       <c r="B18" s="15" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>62</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F18" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G18" s="16"/>
       <c r="H18" s="29"/>
@@ -3051,88 +3072,88 @@
     <row r="19" spans="1:8" ht="11.65" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="26"/>
       <c r="B19" s="15" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>68</v>
       </c>
       <c r="D19" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="G19" s="16" t="s">
         <v>159</v>
-      </c>
-      <c r="E19" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="F19" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>160</v>
       </c>
       <c r="H19" s="29"/>
     </row>
     <row r="20" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="26"/>
       <c r="B20" s="15" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>86</v>
       </c>
       <c r="D20" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="G20" s="16" t="s">
         <v>161</v>
-      </c>
-      <c r="E20" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="F20" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>162</v>
       </c>
       <c r="H20" s="29"/>
     </row>
     <row r="21" spans="1:8" ht="11.65" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="26"/>
       <c r="B21" s="15" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>106</v>
       </c>
       <c r="D21" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="G21" s="16" t="s">
         <v>163</v>
-      </c>
-      <c r="E21" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="F21" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>164</v>
       </c>
       <c r="H21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="11.65" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D22" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="G22" s="16" t="s">
         <v>165</v>
-      </c>
-      <c r="E22" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="F22" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>166</v>
       </c>
       <c r="H22" s="29"/>
     </row>
@@ -3207,8 +3228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D4BC373-9472-45A7-8E38-AC686175D042}">
   <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -3249,7 +3270,7 @@
     <row r="3" spans="1:14" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>2</v>
@@ -3264,53 +3285,53 @@
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="B4" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="D4" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="E4" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="F4" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="F4" s="13" t="s">
+      <c r="G4" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="H4" s="10" t="s">
         <v>126</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="15" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E5" s="16"/>
       <c r="F5" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="H5" s="15" t="s">
         <v>132</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>3</v>
@@ -3330,25 +3351,25 @@
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="D7" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="E7" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="F7" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="F7" s="13" t="s">
+      <c r="G7" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="H7" s="10" t="s">
         <v>126</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>127</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="17"/>
@@ -3359,23 +3380,23 @@
     <row r="8" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="17"/>
@@ -3386,7 +3407,7 @@
     <row r="9" spans="1:14" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>4</v>
@@ -3406,53 +3427,53 @@
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="D10" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="E10" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="F10" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="F10" s="13" t="s">
+      <c r="G10" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="H10" s="10" t="s">
         <v>126</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="36" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14"/>
       <c r="B11" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E11" s="17"/>
       <c r="F11" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>5</v>
@@ -3467,53 +3488,53 @@
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="D13" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="E13" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="F13" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="E13" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="F13" s="13" t="s">
+      <c r="G13" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="H13" s="10" t="s">
         <v>126</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="36" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
       <c r="B14" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E14" s="17"/>
       <c r="F14" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>6</v>
@@ -3528,625 +3549,625 @@
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="D16" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="E16" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="F16" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="E16" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="F16" s="13" t="s">
+      <c r="G16" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="H16" s="10" t="s">
         <v>126</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14"/>
       <c r="B17" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E17" s="17"/>
       <c r="F17" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="G17" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="G17" s="18" t="s">
+      <c r="H17" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14"/>
       <c r="B18" s="15" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E18" s="14"/>
       <c r="F18" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G18" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14"/>
       <c r="B19" s="15" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E19" s="14"/>
       <c r="F19" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G19" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14"/>
       <c r="B20" s="15" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E20" s="14"/>
       <c r="F20" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G20" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14"/>
       <c r="B21" s="15" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E21" s="14"/>
       <c r="F21" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G21" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14"/>
       <c r="B22" s="15" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>11</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E22" s="14"/>
       <c r="F22" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G22" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
       <c r="B23" s="15" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E23" s="14"/>
       <c r="F23" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G23" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
       <c r="B24" s="15" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>13</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E24" s="14"/>
       <c r="F24" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="G24" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="G24" s="26" t="s">
-        <v>142</v>
-      </c>
       <c r="H24" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A25" s="14"/>
       <c r="B25" s="15" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E25" s="14"/>
       <c r="F25" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="G25" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="G25" s="26" t="s">
-        <v>142</v>
-      </c>
       <c r="H25" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A26" s="14"/>
       <c r="B26" s="15" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>15</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E26" s="14"/>
       <c r="F26" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="G26" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="G26" s="26" t="s">
-        <v>142</v>
-      </c>
       <c r="H26" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14"/>
       <c r="B27" s="15" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C27" s="15" t="s">
         <v>16</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E27" s="14"/>
       <c r="F27" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="G27" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="G27" s="26" t="s">
-        <v>142</v>
-      </c>
       <c r="H27" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14"/>
       <c r="B28" s="15" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>17</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E28" s="14"/>
       <c r="F28" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="G28" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="G28" s="26" t="s">
-        <v>142</v>
-      </c>
       <c r="H28" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14"/>
       <c r="B29" s="15" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>18</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E29" s="14"/>
       <c r="F29" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="G29" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="G29" s="26" t="s">
-        <v>142</v>
-      </c>
       <c r="H29" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14"/>
       <c r="B30" s="15" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C30" s="15" t="s">
         <v>19</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E30" s="14"/>
       <c r="F30" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="G30" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="G30" s="26" t="s">
-        <v>142</v>
-      </c>
       <c r="H30" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14"/>
       <c r="B31" s="15" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C31" s="15" t="s">
         <v>20</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E31" s="14"/>
       <c r="F31" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="G31" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="G31" s="26" t="s">
-        <v>142</v>
-      </c>
       <c r="H31" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14"/>
       <c r="B32" s="15" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C32" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G32" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14"/>
       <c r="B33" s="15" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C33" s="15" t="s">
         <v>22</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E33" s="14"/>
       <c r="F33" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G33" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H33" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="34" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A34" s="14"/>
       <c r="B34" s="15" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C34" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E34" s="14"/>
       <c r="F34" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G34" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H34" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="35" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C35" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D35" s="43" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E35" s="17"/>
       <c r="F35" s="44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G35" s="44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H35" s="43" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="36" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A36" s="14"/>
       <c r="B36" s="15" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C36" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E36" s="14"/>
       <c r="F36" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G36" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H36" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A37" s="14"/>
       <c r="B37" s="15" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C37" s="15" t="s">
         <v>26</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E37" s="14"/>
       <c r="F37" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G37" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H37" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="38" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A38" s="14"/>
       <c r="B38" s="15" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C38" s="15" t="s">
         <v>27</v>
       </c>
       <c r="D38" s="27" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E38" s="14"/>
       <c r="F38" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="G38" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="G38" s="26" t="s">
-        <v>142</v>
-      </c>
       <c r="H38" s="28" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="39" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A39" s="14"/>
       <c r="B39" s="15" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C39" s="15" t="s">
         <v>28</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E39" s="14"/>
       <c r="F39" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="G39" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="G39" s="26" t="s">
-        <v>142</v>
-      </c>
       <c r="H39" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="40" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A40" s="14"/>
       <c r="B40" s="15" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C40" s="15" t="s">
         <v>29</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E40" s="14"/>
       <c r="F40" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="G40" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="G40" s="26" t="s">
-        <v>142</v>
-      </c>
       <c r="H40" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="41" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A41" s="14"/>
       <c r="B41" s="15" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C41" s="15" t="s">
         <v>30</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E41" s="14"/>
       <c r="F41" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="G41" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="G41" s="26" t="s">
-        <v>142</v>
-      </c>
       <c r="H41" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="42" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A42" s="14"/>
       <c r="B42" s="15" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C42" s="15" t="s">
         <v>31</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E42" s="14"/>
       <c r="F42" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="G42" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="G42" s="26" t="s">
-        <v>142</v>
-      </c>
       <c r="H42" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="43" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A43" s="14"/>
       <c r="B43" s="15" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C43" s="15" t="s">
         <v>32</v>
       </c>
       <c r="D43" s="25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E43" s="14"/>
       <c r="F43" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="G43" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="G43" s="26" t="s">
-        <v>142</v>
-      </c>
       <c r="H43" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="44" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>33</v>
@@ -4161,251 +4182,251 @@
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="9"/>
       <c r="B45" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C45" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="D45" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="D45" s="12" t="s">
+      <c r="E45" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="F45" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="E45" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="F45" s="13" t="s">
+      <c r="G45" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="G45" s="13" t="s">
+      <c r="H45" s="10" t="s">
         <v>126</v>
-      </c>
-      <c r="H45" s="10" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="46" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A46" s="14"/>
       <c r="B46" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E46" s="17"/>
       <c r="F46" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G46" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A47" s="14"/>
       <c r="B47" s="15" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C47" s="15" t="s">
         <v>34</v>
       </c>
       <c r="D47" s="25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E47" s="14"/>
       <c r="F47" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G47" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H47" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A48" s="14"/>
       <c r="B48" s="15" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C48" s="15" t="s">
         <v>35</v>
       </c>
       <c r="D48" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E48" s="14"/>
       <c r="F48" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G48" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H48" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A49" s="14"/>
       <c r="B49" s="15" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C49" s="15" t="s">
         <v>36</v>
       </c>
       <c r="D49" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E49" s="14"/>
       <c r="F49" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G49" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H49" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A50" s="14"/>
       <c r="B50" s="15" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C50" s="15" t="s">
         <v>37</v>
       </c>
       <c r="D50" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="E50" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="E50" s="24" t="s">
+      <c r="F50" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="G50" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="H50" s="15" t="s">
         <v>218</v>
-      </c>
-      <c r="F50" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="G50" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="H50" s="15" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A51" s="14"/>
       <c r="B51" s="15" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C51" s="15" t="s">
         <v>38</v>
       </c>
       <c r="D51" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E51" s="24"/>
       <c r="F51" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G51" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H51" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A52" s="14"/>
       <c r="B52" s="15" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C52" s="15" t="s">
         <v>37</v>
       </c>
       <c r="D52" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="E52" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="E52" s="24" t="s">
+      <c r="F52" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="G52" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="H52" s="15" t="s">
         <v>218</v>
-      </c>
-      <c r="F52" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="G52" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="H52" s="15" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="53" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A53" s="14"/>
       <c r="B53" s="15" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C53" s="15" t="s">
         <v>39</v>
       </c>
       <c r="D53" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E53" s="24"/>
       <c r="F53" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G53" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H53" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A54" s="14"/>
       <c r="B54" s="15" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C54" s="15" t="s">
         <v>37</v>
       </c>
       <c r="D54" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="E54" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="E54" s="24" t="s">
+      <c r="F54" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="G54" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="H54" s="15" t="s">
         <v>218</v>
-      </c>
-      <c r="F54" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="G54" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="H54" s="15" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="60" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A55" s="14"/>
       <c r="B55" s="15" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C55" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E55" s="14"/>
       <c r="F55" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G55" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H55" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -4419,10 +4440,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B13C99-BA63-4783-81FE-9F858A27BFD2}">
-  <dimension ref="A1:I80"/>
+  <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -4460,7 +4481,7 @@
     <row r="3" spans="1:9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>41</v>
@@ -4475,31 +4496,31 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="B4" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="D4" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="E4" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="F4" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="F4" s="13" t="s">
+      <c r="G4" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="H4" s="11" t="s">
         <v>126</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:9" customFormat="1" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="15" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>41</v>
@@ -4507,20 +4528,20 @@
       <c r="D5" s="2"/>
       <c r="E5" s="15"/>
       <c r="F5" s="26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I5" s="34"/>
     </row>
     <row r="6" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>42</v>
@@ -4534,53 +4555,53 @@
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="D7" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="E7" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="F7" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="F7" s="13" t="s">
+      <c r="G7" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="H7" s="10" t="s">
         <v>126</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="15" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>42</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E8" s="16"/>
       <c r="F8" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H8" s="43" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>43</v>
@@ -4594,1559 +4615,1581 @@
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="D10" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="D10" s="42" t="s">
+      <c r="E10" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="F10" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="F10" s="13" t="s">
+      <c r="G10" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="H10" s="10" t="s">
         <v>126</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16"/>
       <c r="B11" s="20" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>43</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E11" s="17"/>
       <c r="F11" s="44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G11" s="44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H11" s="43" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16"/>
       <c r="B12" s="20" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="43" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G12" s="44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H12" s="43" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16"/>
       <c r="B13" s="20" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="43" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G13" s="44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H13" s="43" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16"/>
       <c r="B14" s="20" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C14" s="20" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E14" s="17"/>
       <c r="F14" s="44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G14" s="44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H14" s="43" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="48" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16"/>
       <c r="B15" s="20" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C15" s="20" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="43" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E15" s="17"/>
       <c r="F15" s="44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G15" s="44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H15" s="43" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16"/>
       <c r="B16" s="20" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C16" s="20" t="s">
         <v>44</v>
       </c>
       <c r="D16" s="43" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E16" s="17"/>
       <c r="F16" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="G16" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="G16" s="44" t="s">
-        <v>142</v>
-      </c>
       <c r="H16" s="43" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A17" s="16"/>
       <c r="B17" s="20" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C17" s="20" t="s">
         <v>45</v>
       </c>
       <c r="D17" s="43" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E17" s="17"/>
       <c r="F17" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="G17" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="G17" s="44" t="s">
-        <v>142</v>
-      </c>
       <c r="H17" s="43" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16"/>
       <c r="B18" s="20" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C18" s="20" t="s">
         <v>46</v>
       </c>
       <c r="D18" s="43" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E18" s="17"/>
       <c r="F18" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="G18" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="G18" s="44" t="s">
-        <v>142</v>
-      </c>
       <c r="H18" s="43" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="84" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16"/>
       <c r="B19" s="20" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C19" s="20" t="s">
         <v>47</v>
       </c>
       <c r="D19" s="43" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E19" s="17"/>
       <c r="F19" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="G19" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="G19" s="44" t="s">
-        <v>142</v>
-      </c>
       <c r="H19" s="43" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16"/>
       <c r="B20" s="20" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>21</v>
       </c>
       <c r="D20" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E20" s="17"/>
       <c r="F20" s="44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G20" s="44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H20" s="43" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A21" s="16"/>
       <c r="B21" s="20" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>22</v>
       </c>
       <c r="D21" s="43" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E21" s="17"/>
       <c r="F21" s="44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G21" s="44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H21" s="43" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16"/>
       <c r="B22" s="20" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C22" s="20" t="s">
         <v>23</v>
       </c>
       <c r="D22" s="43" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E22" s="17"/>
       <c r="F22" s="44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G22" s="44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H22" s="43" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16"/>
       <c r="B23" s="20" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C23" s="20" t="s">
         <v>24</v>
       </c>
       <c r="D23" s="43" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E23" s="17"/>
       <c r="F23" s="44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G23" s="44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H23" s="43" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16"/>
       <c r="B24" s="20" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C24" s="20" t="s">
         <v>25</v>
       </c>
       <c r="D24" s="43" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E24" s="17"/>
       <c r="F24" s="44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G24" s="44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H24" s="43" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A25" s="16"/>
       <c r="B25" s="20" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C25" s="20" t="s">
         <v>26</v>
       </c>
       <c r="D25" s="43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E25" s="17"/>
       <c r="F25" s="44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G25" s="44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H25" s="43" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A26" s="16"/>
       <c r="B26" s="20" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C26" s="20" t="s">
         <v>48</v>
       </c>
       <c r="D26" s="43" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E26" s="17"/>
       <c r="F26" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="G26" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="G26" s="44" t="s">
-        <v>142</v>
-      </c>
       <c r="H26" s="43" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="27" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A27" s="16"/>
       <c r="B27" s="20" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C27" s="20" t="s">
         <v>11</v>
       </c>
       <c r="D27" s="43" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E27" s="17"/>
       <c r="F27" s="44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G27" s="44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H27" s="43" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A28" s="16"/>
       <c r="B28" s="20" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C28" s="20" t="s">
         <v>12</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E28" s="17"/>
       <c r="F28" s="44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G28" s="44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H28" s="43" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A29" s="16"/>
       <c r="B29" s="20" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="E29" s="14"/>
+        <v>570</v>
+      </c>
+      <c r="D29" s="43" t="s">
+        <v>571</v>
+      </c>
+      <c r="E29" s="17"/>
       <c r="F29" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="G29" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="G29" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="H29" s="15" t="s">
-        <v>184</v>
+      <c r="H29" s="43" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A30" s="16"/>
       <c r="B30" s="20" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E30" s="14"/>
       <c r="F30" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="G30" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="G30" s="26" t="s">
-        <v>142</v>
-      </c>
       <c r="H30" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A31" s="16"/>
       <c r="B31" s="20" t="s">
-        <v>536</v>
+        <v>572</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E31" s="14"/>
       <c r="F31" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="G31" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="G31" s="26" t="s">
-        <v>142</v>
-      </c>
       <c r="H31" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16"/>
       <c r="B32" s="20" t="s">
-        <v>537</v>
+        <v>573</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="G32" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="G32" s="26" t="s">
-        <v>142</v>
-      </c>
       <c r="H32" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="33" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A33" s="16"/>
       <c r="B33" s="20" t="s">
-        <v>538</v>
+        <v>574</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E33" s="14"/>
       <c r="F33" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="G33" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="G33" s="26" t="s">
-        <v>142</v>
-      </c>
       <c r="H33" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="34" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16"/>
       <c r="B34" s="20" t="s">
-        <v>539</v>
+        <v>575</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E34" s="14"/>
       <c r="F34" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="G34" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="G34" s="26" t="s">
-        <v>142</v>
-      </c>
       <c r="H34" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="35" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A35" s="16"/>
       <c r="B35" s="20" t="s">
-        <v>540</v>
+        <v>576</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E35" s="14"/>
       <c r="F35" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="G35" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="G35" s="26" t="s">
-        <v>142</v>
-      </c>
       <c r="H35" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="36" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A36" s="16"/>
       <c r="B36" s="20" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E36" s="14"/>
       <c r="F36" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="G36" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="G36" s="26" t="s">
-        <v>142</v>
-      </c>
       <c r="H36" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A37" s="16"/>
       <c r="B37" s="20" t="s">
-        <v>541</v>
+        <v>578</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D37" s="43" t="s">
-        <v>237</v>
-      </c>
-      <c r="E37" s="17"/>
-      <c r="F37" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="G37" s="44" t="s">
-        <v>130</v>
-      </c>
-      <c r="H37" s="43" t="s">
-        <v>192</v>
+        <v>20</v>
+      </c>
+      <c r="D37" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="E37" s="14"/>
+      <c r="F37" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="G37" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="H37" s="15" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="38" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A38" s="16"/>
       <c r="B38" s="20" t="s">
-        <v>415</v>
+        <v>529</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D38" s="43" t="s">
-        <v>193</v>
+        <v>236</v>
       </c>
       <c r="E38" s="17"/>
       <c r="F38" s="44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G38" s="44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H38" s="43" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
     </row>
     <row r="39" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A39" s="16"/>
       <c r="B39" s="20" t="s">
-        <v>416</v>
+        <v>530</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D39" s="43" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E39" s="17"/>
       <c r="F39" s="44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G39" s="44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H39" s="43" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
     </row>
     <row r="40" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A40" s="16"/>
       <c r="B40" s="20" t="s">
-        <v>417</v>
+        <v>531</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D40" s="43" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E40" s="17"/>
       <c r="F40" s="44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G40" s="44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H40" s="43" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="41" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A41" s="16"/>
       <c r="B41" s="20" t="s">
-        <v>418</v>
+        <v>532</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D41" s="43" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E41" s="17"/>
       <c r="F41" s="44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G41" s="44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H41" s="43" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A42" s="16"/>
       <c r="B42" s="20" t="s">
-        <v>419</v>
+        <v>533</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D42" s="43" t="s">
-        <v>238</v>
+        <v>197</v>
       </c>
       <c r="E42" s="17"/>
       <c r="F42" s="44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G42" s="44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H42" s="43" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A43" s="16"/>
       <c r="B43" s="20" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D43" s="43" t="s">
-        <v>201</v>
+        <v>237</v>
       </c>
       <c r="E43" s="17"/>
       <c r="F43" s="44" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="G43" s="44" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="H43" s="43" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="44" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A44" s="16"/>
       <c r="B44" s="20" t="s">
-        <v>543</v>
+        <v>579</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D44" s="43" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E44" s="17"/>
       <c r="F44" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="G44" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="G44" s="44" t="s">
-        <v>142</v>
-      </c>
       <c r="H44" s="43" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="45" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A45" s="16"/>
       <c r="B45" s="20" t="s">
-        <v>544</v>
+        <v>580</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D45" s="43" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E45" s="17"/>
       <c r="F45" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="G45" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="G45" s="44" t="s">
-        <v>142</v>
-      </c>
       <c r="H45" s="43" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="46" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A46" s="16"/>
       <c r="B46" s="20" t="s">
-        <v>545</v>
+        <v>581</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D46" s="43" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E46" s="17"/>
       <c r="F46" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="G46" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="G46" s="44" t="s">
-        <v>142</v>
-      </c>
       <c r="H46" s="43" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="47" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A47" s="16"/>
       <c r="B47" s="20" t="s">
-        <v>546</v>
+        <v>582</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D47" s="43" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E47" s="17"/>
       <c r="F47" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="G47" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="G47" s="44" t="s">
-        <v>142</v>
-      </c>
       <c r="H47" s="43" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="48" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A48" s="16"/>
       <c r="B48" s="20" t="s">
-        <v>547</v>
+        <v>583</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D48" s="43" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E48" s="17"/>
       <c r="F48" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="G48" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="G48" s="44" t="s">
-        <v>142</v>
-      </c>
       <c r="H48" s="43" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="C49" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="16"/>
+      <c r="B49" s="20" t="s">
+        <v>584</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D49" s="43" t="s">
+        <v>208</v>
+      </c>
+      <c r="E49" s="17"/>
+      <c r="F49" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="G49" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="H49" s="43" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
+      <c r="B50" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="C50" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D49" s="6"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="19"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="9"/>
-      <c r="B50" s="10" t="s">
+      <c r="D50" s="6"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="19"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="9"/>
+      <c r="B51" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C51" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="D51" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="D50" s="42" t="s">
+      <c r="E51" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="F51" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="E50" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="F50" s="13" t="s">
+      <c r="G51" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="G50" s="13" t="s">
+      <c r="H51" s="10" t="s">
         <v>126</v>
-      </c>
-      <c r="H50" s="10" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="16"/>
-      <c r="B51" s="21" t="s">
-        <v>354</v>
-      </c>
-      <c r="C51" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="D51" s="43" t="s">
-        <v>152</v>
-      </c>
-      <c r="E51" s="16"/>
-      <c r="F51" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="G51" s="44" t="s">
-        <v>130</v>
-      </c>
-      <c r="H51" s="43" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="52" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A52" s="16"/>
       <c r="B52" s="21" t="s">
-        <v>420</v>
+        <v>352</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="D52" s="43" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="E52" s="16"/>
       <c r="F52" s="44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G52" s="44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H52" s="43" t="s">
-        <v>225</v>
+        <v>150</v>
       </c>
     </row>
     <row r="53" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A53" s="16"/>
       <c r="B53" s="21" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="C53" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D53" s="43" t="s">
-        <v>226</v>
+        <v>168</v>
       </c>
       <c r="E53" s="16"/>
       <c r="F53" s="44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G53" s="44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H53" s="43" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A54" s="16"/>
       <c r="B54" s="21" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="C54" s="21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D54" s="43" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E54" s="16"/>
       <c r="F54" s="44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G54" s="44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H54" s="43" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A55" s="16"/>
       <c r="B55" s="21" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C55" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D55" s="43" t="s">
-        <v>175</v>
+        <v>226</v>
       </c>
       <c r="E55" s="16"/>
       <c r="F55" s="44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G55" s="44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H55" s="43" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A56" s="16"/>
       <c r="B56" s="21" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C56" s="21" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="D56" s="43" t="s">
-        <v>229</v>
+        <v>174</v>
       </c>
       <c r="E56" s="16"/>
       <c r="F56" s="44" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="G56" s="44" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="H56" s="43" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A57" s="16"/>
       <c r="B57" s="21" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="C57" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D57" s="43" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E57" s="16"/>
       <c r="F57" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="G57" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="G57" s="44" t="s">
-        <v>142</v>
-      </c>
       <c r="H57" s="43" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="58" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A58" s="16"/>
       <c r="B58" s="21" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C58" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D58" s="43" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E58" s="16"/>
       <c r="F58" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="G58" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="G58" s="44" t="s">
-        <v>142</v>
-      </c>
       <c r="H58" s="43" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="84" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A59" s="16"/>
       <c r="B59" s="21" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="C59" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D59" s="43" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E59" s="16"/>
       <c r="F59" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="G59" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="G59" s="44" t="s">
-        <v>142</v>
-      </c>
       <c r="H59" s="43" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="84" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A60" s="16"/>
       <c r="B60" s="21" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="C60" s="21" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="D60" s="43" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E60" s="16"/>
       <c r="F60" s="44" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="G60" s="44" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="H60" s="43" t="s">
-        <v>192</v>
+        <v>235</v>
       </c>
     </row>
     <row r="61" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A61" s="16"/>
       <c r="B61" s="21" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="C61" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D61" s="43" t="s">
-        <v>193</v>
+        <v>236</v>
       </c>
       <c r="E61" s="16"/>
       <c r="F61" s="44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G61" s="44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H61" s="43" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
     </row>
     <row r="62" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A62" s="16"/>
       <c r="B62" s="21" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="C62" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D62" s="43" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E62" s="16"/>
       <c r="F62" s="44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G62" s="44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H62" s="43" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
     </row>
     <row r="63" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A63" s="16"/>
       <c r="B63" s="21" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="C63" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D63" s="43" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E63" s="16"/>
       <c r="F63" s="44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G63" s="44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H63" s="43" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="64" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A64" s="16"/>
       <c r="B64" s="21" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="C64" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D64" s="43" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E64" s="16"/>
       <c r="F64" s="44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G64" s="44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H64" s="43" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A65" s="16"/>
       <c r="B65" s="21" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="C65" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D65" s="43" t="s">
-        <v>238</v>
+        <v>197</v>
       </c>
       <c r="E65" s="16"/>
       <c r="F65" s="44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G65" s="44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H65" s="43" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A66" s="16"/>
       <c r="B66" s="21" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="C66" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D66" s="28" t="s">
-        <v>239</v>
+        <v>26</v>
+      </c>
+      <c r="D66" s="43" t="s">
+        <v>237</v>
       </c>
       <c r="E66" s="16"/>
       <c r="F66" s="44" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="G66" s="44" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="H66" s="43" t="s">
-        <v>240</v>
+        <v>199</v>
       </c>
     </row>
     <row r="67" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A67" s="16"/>
       <c r="B67" s="21" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="C67" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D67" s="43" t="s">
-        <v>177</v>
+        <v>48</v>
+      </c>
+      <c r="D67" s="28" t="s">
+        <v>238</v>
       </c>
       <c r="E67" s="16"/>
       <c r="F67" s="44" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="G67" s="44" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="H67" s="43" t="s">
-        <v>178</v>
+        <v>239</v>
       </c>
     </row>
     <row r="68" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A68" s="16"/>
       <c r="B68" s="21" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="C68" s="21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D68" s="43" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E68" s="16"/>
       <c r="F68" s="44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G68" s="44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H68" s="43" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="69" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A69" s="16"/>
       <c r="B69" s="21" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="C69" s="21" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D69" s="43" t="s">
-        <v>237</v>
+        <v>178</v>
       </c>
       <c r="E69" s="16"/>
       <c r="F69" s="44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G69" s="44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H69" s="43" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
     </row>
     <row r="70" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A70" s="16"/>
       <c r="B70" s="21" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="C70" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D70" s="43" t="s">
-        <v>193</v>
+        <v>236</v>
       </c>
       <c r="E70" s="16"/>
       <c r="F70" s="44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G70" s="44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H70" s="43" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
     </row>
     <row r="71" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A71" s="16"/>
       <c r="B71" s="21" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="C71" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D71" s="43" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E71" s="16"/>
       <c r="F71" s="44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G71" s="44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H71" s="43" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
     </row>
     <row r="72" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A72" s="16"/>
       <c r="B72" s="21" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="C72" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D72" s="43" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E72" s="16"/>
       <c r="F72" s="44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G72" s="44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H72" s="43" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="73" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A73" s="16"/>
       <c r="B73" s="21" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="C73" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D73" s="43" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E73" s="16"/>
       <c r="F73" s="44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G73" s="44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H73" s="43" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A74" s="16"/>
       <c r="B74" s="21" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="C74" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D74" s="43" t="s">
-        <v>238</v>
+        <v>197</v>
       </c>
       <c r="E74" s="16"/>
       <c r="F74" s="44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G74" s="44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H74" s="43" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A75" s="16"/>
       <c r="B75" s="21" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="C75" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D75" s="43" t="s">
-        <v>201</v>
-      </c>
-      <c r="E75" s="17"/>
+        <v>237</v>
+      </c>
+      <c r="E75" s="16"/>
       <c r="F75" s="44" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="G75" s="44" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="H75" s="43" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="76" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A76" s="16"/>
       <c r="B76" s="21" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="C76" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D76" s="43" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E76" s="17"/>
       <c r="F76" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="G76" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="G76" s="44" t="s">
-        <v>142</v>
-      </c>
       <c r="H76" s="43" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="77" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A77" s="16"/>
       <c r="B77" s="21" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="C77" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D77" s="43" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E77" s="17"/>
       <c r="F77" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="G77" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="G77" s="44" t="s">
-        <v>142</v>
-      </c>
       <c r="H77" s="43" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="78" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A78" s="16"/>
       <c r="B78" s="21" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="C78" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D78" s="43" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E78" s="17"/>
       <c r="F78" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="G78" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="G78" s="44" t="s">
-        <v>142</v>
-      </c>
       <c r="H78" s="43" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="79" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A79" s="16"/>
       <c r="B79" s="21" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="C79" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D79" s="43" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E79" s="17"/>
       <c r="F79" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="G79" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="G79" s="44" t="s">
-        <v>142</v>
-      </c>
       <c r="H79" s="43" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="80" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A80" s="16"/>
       <c r="B80" s="21" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="C80" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D80" s="43" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E80" s="17"/>
       <c r="F80" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="G80" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="G80" s="44" t="s">
-        <v>142</v>
-      </c>
       <c r="H80" s="43" t="s">
-        <v>210</v>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="16"/>
+      <c r="B81" s="21" t="s">
+        <v>441</v>
+      </c>
+      <c r="C81" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D81" s="43" t="s">
+        <v>208</v>
+      </c>
+      <c r="E81" s="17"/>
+      <c r="F81" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="G81" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="H81" s="43" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -6161,10 +6204,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25333C4E-FCEB-4BCB-A95F-5DF88E54B42A}">
-  <dimension ref="A1:I111"/>
+  <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -6203,7 +6246,7 @@
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>41</v>
@@ -6217,31 +6260,31 @@
     <row r="4" spans="1:8" s="23" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="B4" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="D4" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="E4" s="52" t="s">
+        <v>166</v>
+      </c>
+      <c r="F4" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="E4" s="52" t="s">
-        <v>167</v>
-      </c>
-      <c r="F4" s="13" t="s">
+      <c r="G4" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="H4" s="11" t="s">
         <v>126</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="15" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>41</v>
@@ -6249,19 +6292,19 @@
       <c r="D5" s="2"/>
       <c r="E5" s="26"/>
       <c r="F5" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>50</v>
@@ -6275,2342 +6318,2364 @@
     <row r="7" spans="1:8" s="23" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="D7" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="E7" s="52" t="s">
+        <v>166</v>
+      </c>
+      <c r="F7" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="E7" s="52" t="s">
-        <v>167</v>
-      </c>
-      <c r="F7" s="13" t="s">
+      <c r="G7" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="H7" s="11" t="s">
         <v>126</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="15" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>50</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E8" s="26"/>
       <c r="F8" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A9" s="37"/>
       <c r="B9" s="37" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C9" s="37" t="s">
         <v>51</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E9" s="39"/>
       <c r="F9" s="39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G9" s="39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H9" s="38" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
       <c r="B10" s="15" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>52</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E10" s="26"/>
       <c r="F10" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="60" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="15" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>53</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E11" s="26"/>
       <c r="F11" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
       <c r="B12" s="15" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>54</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E12" s="26"/>
       <c r="F12" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="13" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
       <c r="B13" s="15" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>548</v>
+        <v>535</v>
       </c>
       <c r="E13" s="26"/>
       <c r="F13" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="G13" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="G13" s="26" t="s">
-        <v>142</v>
-      </c>
       <c r="H13" s="16" t="s">
-        <v>549</v>
+        <v>536</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="B14" s="15" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>52</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>550</v>
+        <v>537</v>
       </c>
       <c r="E14" s="26"/>
       <c r="F14" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="G14" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="G14" s="26" t="s">
-        <v>142</v>
-      </c>
       <c r="H14" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
       <c r="B15" s="15" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>572</v>
+        <v>558</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
       <c r="E15" s="26"/>
       <c r="F15" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="B16" s="15" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>573</v>
+        <v>559</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="E16" s="26"/>
       <c r="F16" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
       <c r="B17" s="15" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>574</v>
+        <v>560</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="E17" s="26"/>
       <c r="F17" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G17" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
       <c r="B18" s="15" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>58</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E18" s="26"/>
       <c r="F18" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G18" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="19" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
       <c r="B19" s="15" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>59</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E19" s="26"/>
       <c r="F19" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G19" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
       <c r="B20" s="15" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>556</v>
+        <v>543</v>
       </c>
       <c r="E20" s="26"/>
       <c r="F20" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G20" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>557</v>
+        <v>544</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
       <c r="B21" s="15" t="s">
-        <v>569</v>
+        <v>556</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>576</v>
+        <v>562</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>558</v>
+        <v>545</v>
       </c>
       <c r="E21" s="26"/>
       <c r="F21" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G21" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
       <c r="B22" s="15" t="s">
-        <v>570</v>
+        <v>557</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="E22" s="26"/>
       <c r="F22" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="G22" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="G22" s="26" t="s">
-        <v>142</v>
-      </c>
       <c r="H22" s="16" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="37"/>
       <c r="B23" s="37" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C23" s="37" t="s">
         <v>55</v>
       </c>
       <c r="D23" s="40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E23" s="39"/>
       <c r="F23" s="39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G23" s="39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H23" s="38" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
       <c r="B24" s="15" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>56</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E24" s="26"/>
       <c r="F24" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G24" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="54" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="B25" s="15" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>57</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E25" s="26"/>
       <c r="F25" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="G25" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="G25" s="26" t="s">
-        <v>142</v>
-      </c>
       <c r="H25" s="16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="26" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="B26" s="15" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>58</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E26" s="26"/>
       <c r="F26" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G26" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
       <c r="B27" s="15" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="C27" s="15" t="s">
         <v>59</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E27" s="26"/>
       <c r="F27" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G27" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="60" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="15" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E28" s="26"/>
       <c r="F28" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G28" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H28" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
       <c r="B29" s="15" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>60</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E29" s="26"/>
       <c r="F29" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G29" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="15" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="C30" s="15" t="s">
         <v>61</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E30" s="26"/>
       <c r="F30" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G30" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="37"/>
       <c r="B31" s="37" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C31" s="37" t="s">
         <v>62</v>
       </c>
       <c r="D31" s="40" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E31" s="39"/>
       <c r="F31" s="39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G31" s="39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H31" s="38"/>
     </row>
     <row r="32" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
       <c r="B32" s="15" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="C32" s="15" t="s">
         <v>63</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E32" s="26"/>
       <c r="F32" s="26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G32" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H32" s="16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="108" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="15"/>
       <c r="B33" s="15" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="C33" s="15" t="s">
         <v>64</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E33" s="26"/>
       <c r="F33" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G33" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H33" s="16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34" s="15"/>
       <c r="B34" s="15" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C34" s="15" t="s">
         <v>65</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E34" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="F34" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="G34" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="H34" s="16" t="s">
         <v>261</v>
-      </c>
-      <c r="E34" s="26" t="s">
-        <v>218</v>
-      </c>
-      <c r="F34" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="G34" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="H34" s="16" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="35" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" s="15"/>
       <c r="B35" s="15" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="C35" s="15" t="s">
         <v>66</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E35" s="26"/>
       <c r="F35" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G35" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H35" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A36" s="15"/>
       <c r="B36" s="15" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C36" s="15" t="s">
         <v>37</v>
       </c>
       <c r="D36" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E36" s="26" t="s">
         <v>217</v>
       </c>
-      <c r="E36" s="26" t="s">
-        <v>218</v>
-      </c>
       <c r="F36" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G36" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H36" s="16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="37" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A37" s="15"/>
       <c r="B37" s="15" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="C37" s="15" t="s">
         <v>67</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E37" s="26"/>
       <c r="F37" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="G37" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="G37" s="26" t="s">
-        <v>142</v>
-      </c>
       <c r="H37" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A38" s="15"/>
       <c r="B38" s="15" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="C38" s="15" t="s">
         <v>37</v>
       </c>
       <c r="D38" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E38" s="26" t="s">
         <v>217</v>
       </c>
-      <c r="E38" s="26" t="s">
-        <v>218</v>
-      </c>
       <c r="F38" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G38" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H38" s="16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="37"/>
       <c r="B39" s="37" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C39" s="37" t="s">
         <v>68</v>
       </c>
       <c r="D39" s="40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E39" s="39"/>
       <c r="F39" s="39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G39" s="39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H39" s="38" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="40" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A40" s="15"/>
       <c r="B40" s="15" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="C40" s="15" t="s">
         <v>69</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F40" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G40" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H40" s="16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" s="15"/>
       <c r="B41" s="15" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="C41" s="15" t="s">
         <v>70</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E41" s="26"/>
       <c r="F41" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="G41" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="G41" s="26" t="s">
-        <v>142</v>
-      </c>
       <c r="H41" s="16" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="42" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A42" s="15"/>
       <c r="B42" s="15" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="C42" s="15" t="s">
         <v>71</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E42" s="26"/>
       <c r="F42" s="26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G42" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H42" s="16" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="43" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A43" s="15"/>
       <c r="B43" s="15" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="C43" s="15" t="s">
         <v>72</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E43" s="26"/>
       <c r="F43" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G43" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H43" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="44" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A44" s="15"/>
       <c r="B44" s="15" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="C44" s="15" t="s">
         <v>73</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E44" s="26"/>
       <c r="F44" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="G44" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="G44" s="26" t="s">
-        <v>142</v>
-      </c>
       <c r="H44" s="16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="45" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A45" s="15"/>
       <c r="B45" s="15" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="C45" s="15" t="s">
         <v>74</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E45" s="26"/>
       <c r="F45" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G45" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H45" s="16" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A46" s="15"/>
       <c r="B46" s="15" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="C46" s="15" t="s">
         <v>75</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E46" s="26"/>
       <c r="F46" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="G46" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="G46" s="26" t="s">
-        <v>142</v>
-      </c>
       <c r="H46" s="16" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="47" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A47" s="15"/>
       <c r="B47" s="15" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="C47" s="15" t="s">
         <v>76</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E47" s="26"/>
       <c r="F47" s="26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G47" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H47" s="16" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="48" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A48" s="15"/>
       <c r="B48" s="15" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="C48" s="15" t="s">
         <v>77</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E48" s="26"/>
       <c r="F48" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G48" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H48" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="49" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A49" s="15"/>
       <c r="B49" s="15" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="C49" s="15" t="s">
         <v>78</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E49" s="26"/>
       <c r="F49" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="G49" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="G49" s="26" t="s">
-        <v>142</v>
-      </c>
       <c r="H49" s="16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="50" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A50" s="15"/>
       <c r="B50" s="15" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="C50" s="15" t="s">
         <v>79</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E50" s="26"/>
       <c r="F50" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G50" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H50" s="16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="51" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A51" s="15"/>
       <c r="B51" s="15" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="C51" s="15" t="s">
         <v>80</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E51" s="26"/>
       <c r="F51" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="G51" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="G51" s="26" t="s">
-        <v>142</v>
-      </c>
       <c r="H51" s="16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="52" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A52" s="15"/>
       <c r="B52" s="15" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="C52" s="15" t="s">
         <v>81</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E52" s="26"/>
       <c r="F52" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="G52" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="G52" s="26" t="s">
-        <v>142</v>
-      </c>
       <c r="H52" s="16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A53" s="15"/>
       <c r="B53" s="15" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="C53" s="15" t="s">
         <v>82</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E53" s="26" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F53" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G53" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H53" s="16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="54" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A54" s="15"/>
       <c r="B54" s="15" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="C54" s="15" t="s">
         <v>83</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E54" s="26" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F54" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G54" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H54" s="16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="55" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A55" s="15"/>
       <c r="B55" s="15" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="C55" s="15" t="s">
         <v>84</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E55" s="26" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F55" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G55" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H55" s="16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A56" s="15"/>
       <c r="B56" s="15" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="C56" s="15" t="s">
         <v>85</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E56" s="26" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F56" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G56" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H56" s="16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A57" s="15"/>
       <c r="B57" s="15" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="C57" s="15" t="s">
         <v>38</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E57" s="26" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F57" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G57" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H57" s="16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="58" spans="1:9" s="35" customFormat="1" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A58" s="15"/>
       <c r="B58" s="15" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="C58" s="15" t="s">
         <v>39</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E58" s="26" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F58" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G58" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H58" s="16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I58" s="36"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="37"/>
       <c r="B59" s="37" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C59" s="37" t="s">
         <v>86</v>
       </c>
       <c r="D59" s="40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E59" s="39"/>
       <c r="F59" s="39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G59" s="39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H59" s="38" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="60" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A60" s="15"/>
       <c r="B60" s="15" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="C60" s="15" t="s">
         <v>87</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E60" s="26"/>
       <c r="F60" s="26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G60" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H60" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="61" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A61" s="15"/>
       <c r="B61" s="15" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="C61" s="15" t="s">
         <v>88</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E61" s="26"/>
       <c r="F61" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="G61" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="G61" s="26" t="s">
-        <v>142</v>
-      </c>
       <c r="H61" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="62" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A62" s="15"/>
       <c r="B62" s="15" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="C62" s="15" t="s">
         <v>89</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E62" s="26"/>
       <c r="F62" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="G62" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="G62" s="26" t="s">
-        <v>142</v>
-      </c>
       <c r="H62" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="63" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A63" s="15"/>
       <c r="B63" s="15" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="C63" s="15" t="s">
         <v>90</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E63" s="24"/>
       <c r="F63" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="G63" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="G63" s="26" t="s">
-        <v>142</v>
-      </c>
       <c r="H63" s="16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="64" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A64" s="15"/>
       <c r="B64" s="15" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="C64" s="15" t="s">
         <v>91</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E64" s="26"/>
       <c r="F64" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="G64" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="G64" s="26" t="s">
-        <v>142</v>
-      </c>
       <c r="H64" s="16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="65" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A65" s="15"/>
       <c r="B65" s="15" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="C65" s="15" t="s">
         <v>92</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E65" s="26"/>
       <c r="F65" s="26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G65" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H65" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="66" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A66" s="15"/>
       <c r="B66" s="15" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="C66" s="15" t="s">
         <v>93</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E66" s="26"/>
       <c r="F66" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G66" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H66" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="67" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A67" s="15"/>
       <c r="B67" s="15" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="C67" s="15" t="s">
         <v>94</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E67" s="26"/>
       <c r="F67" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="G67" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="G67" s="26" t="s">
-        <v>142</v>
-      </c>
       <c r="H67" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="68" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A68" s="15"/>
       <c r="B68" s="15" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="C68" s="15" t="s">
         <v>95</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E68" s="26"/>
       <c r="F68" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G68" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H68" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="69" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A69" s="15"/>
       <c r="B69" s="15" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="C69" s="15" t="s">
         <v>96</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E69" s="26"/>
       <c r="F69" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G69" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H69" s="16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A70" s="15"/>
       <c r="B70" s="15" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="C70" s="15" t="s">
         <v>97</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E70" s="26"/>
       <c r="F70" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="G70" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="G70" s="26" t="s">
-        <v>142</v>
-      </c>
       <c r="H70" s="16" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A71" s="15"/>
       <c r="B71" s="15" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="C71" s="15" t="s">
         <v>98</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E71" s="26" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F71" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G71" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H71" s="16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="72" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A72" s="15"/>
       <c r="B72" s="15" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="C72" s="15" t="s">
         <v>99</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E72" s="26" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F72" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G72" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H72" s="16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="73" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A73" s="15"/>
       <c r="B73" s="15" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="C73" s="15" t="s">
         <v>100</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E73" s="26"/>
       <c r="F73" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="G73" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="G73" s="26" t="s">
-        <v>142</v>
-      </c>
       <c r="H73" s="16" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="74" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A74" s="15"/>
       <c r="B74" s="15" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="C74" s="15" t="s">
         <v>71</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E74" s="26"/>
       <c r="F74" s="26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G74" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H74" s="16" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="75" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A75" s="15"/>
       <c r="B75" s="15" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="C75" s="15" t="s">
         <v>101</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E75" s="26"/>
       <c r="F75" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G75" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H75" s="16" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="76" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A76" s="15"/>
       <c r="B76" s="15" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="C76" s="15" t="s">
         <v>73</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E76" s="26"/>
       <c r="F76" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="G76" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="G76" s="26" t="s">
-        <v>142</v>
-      </c>
       <c r="H76" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="77" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A77" s="15"/>
       <c r="B77" s="15" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="C77" s="15" t="s">
         <v>74</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E77" s="26"/>
       <c r="F77" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G77" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H77" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="78" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A78" s="15"/>
       <c r="B78" s="15" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="C78" s="15" t="s">
         <v>102</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E78" s="26"/>
       <c r="F78" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="G78" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="G78" s="26" t="s">
-        <v>142</v>
-      </c>
       <c r="H78" s="16" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="79" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A79" s="15"/>
       <c r="B79" s="15" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="C79" s="15" t="s">
         <v>76</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E79" s="26"/>
       <c r="F79" s="26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G79" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H79" s="16" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="80" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A80" s="15"/>
       <c r="B80" s="15" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="C80" s="15" t="s">
         <v>77</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E80" s="26"/>
       <c r="F80" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G80" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H80" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="81" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A81" s="15"/>
       <c r="B81" s="15" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="C81" s="15" t="s">
         <v>78</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E81" s="26"/>
       <c r="F81" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="G81" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="G81" s="26" t="s">
-        <v>142</v>
-      </c>
       <c r="H81" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="82" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A82" s="15"/>
       <c r="B82" s="15" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="C82" s="15" t="s">
         <v>79</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E82" s="26"/>
       <c r="F82" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G82" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H82" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="83" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A83" s="15"/>
       <c r="B83" s="15" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="C83" s="15" t="s">
         <v>103</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E83" s="26" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F83" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G83" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H83" s="16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A84" s="15"/>
       <c r="B84" s="15" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="C84" s="15" t="s">
         <v>62</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E84" s="26"/>
       <c r="F84" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G84" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H84" s="16"/>
     </row>
     <row r="85" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A85" s="15"/>
       <c r="B85" s="15" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="C85" s="15" t="s">
         <v>63</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E85" s="26"/>
       <c r="F85" s="26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G85" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H85" s="16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="108" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A86" s="15"/>
       <c r="B86" s="15" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="C86" s="15" t="s">
         <v>64</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E86" s="26"/>
       <c r="F86" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G86" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H86" s="16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A87" s="15"/>
       <c r="B87" s="15" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="C87" s="15" t="s">
         <v>65</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E87" s="26" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F87" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G87" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H87" s="16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="88" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A88" s="15"/>
       <c r="B88" s="15" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="C88" s="15" t="s">
         <v>66</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E88" s="26"/>
       <c r="F88" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G88" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H88" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A89" s="15"/>
       <c r="B89" s="15" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="C89" s="15" t="s">
         <v>37</v>
       </c>
       <c r="D89" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E89" s="26" t="s">
         <v>217</v>
       </c>
-      <c r="E89" s="26" t="s">
-        <v>218</v>
-      </c>
       <c r="F89" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G89" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H89" s="16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="90" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A90" s="15"/>
       <c r="B90" s="15" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="C90" s="15" t="s">
         <v>67</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E90" s="26"/>
       <c r="F90" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="G90" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="G90" s="26" t="s">
-        <v>142</v>
-      </c>
       <c r="H90" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A91" s="15"/>
       <c r="B91" s="15" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="C91" s="15" t="s">
         <v>37</v>
       </c>
       <c r="D91" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E91" s="26" t="s">
         <v>217</v>
       </c>
-      <c r="E91" s="26" t="s">
-        <v>218</v>
-      </c>
       <c r="F91" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G91" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H91" s="16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="92" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A92" s="15"/>
       <c r="B92" s="15" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="C92" s="15" t="s">
         <v>104</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E92" s="26"/>
       <c r="F92" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="G92" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="G92" s="26" t="s">
-        <v>142</v>
-      </c>
       <c r="H92" s="16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="93" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A93" s="15"/>
       <c r="B93" s="15" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="C93" s="15" t="s">
         <v>58</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E93" s="26"/>
       <c r="F93" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G93" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H93" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="94" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A94" s="15"/>
       <c r="B94" s="15" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="C94" s="15" t="s">
         <v>59</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E94" s="26"/>
       <c r="F94" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G94" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H94" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="95" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A95" s="15"/>
       <c r="B95" s="15" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="C95" s="15" t="s">
         <v>105</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E95" s="26"/>
       <c r="F95" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="G95" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="G95" s="26" t="s">
-        <v>142</v>
-      </c>
       <c r="H95" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="37"/>
       <c r="B96" s="37" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C96" s="37" t="s">
         <v>106</v>
       </c>
       <c r="D96" s="40" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E96" s="39"/>
       <c r="F96" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="G96" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="G96" s="39" t="s">
-        <v>142</v>
-      </c>
       <c r="H96" s="38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="97" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A97" s="15"/>
       <c r="B97" s="15" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="C97" s="15" t="s">
         <v>107</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E97" s="26"/>
       <c r="F97" s="26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G97" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H97" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="98" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A98" s="15"/>
       <c r="B98" s="15" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="C98" s="15" t="s">
         <v>108</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E98" s="26"/>
       <c r="F98" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G98" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H98" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="99" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A99" s="15"/>
       <c r="B99" s="15" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="C99" s="15" t="s">
         <v>109</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E99" s="26"/>
       <c r="F99" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G99" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H99" s="16" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A100" s="15"/>
       <c r="B100" s="15" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C100" s="15" t="s">
         <v>110</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E100" s="26"/>
       <c r="F100" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G100" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H100" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A101" s="15"/>
       <c r="B101" s="15" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="C101" s="15" t="s">
         <v>111</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E101" s="26"/>
       <c r="F101" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="G101" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="G101" s="26" t="s">
-        <v>142</v>
-      </c>
       <c r="H101" s="16" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="102" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A102" s="15"/>
       <c r="B102" s="15" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="C102" s="15" t="s">
         <v>112</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E102" s="26"/>
       <c r="F102" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G102" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H102" s="16" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A103" s="15"/>
       <c r="B103" s="15" t="s">
-        <v>518</v>
+        <v>564</v>
       </c>
       <c r="C103" s="15" t="s">
-        <v>113</v>
+        <v>565</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>331</v>
+        <v>566</v>
       </c>
       <c r="E103" s="26"/>
       <c r="F103" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="G103" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="G103" s="26" t="s">
-        <v>142</v>
-      </c>
       <c r="H103" s="16" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="37"/>
-      <c r="B104" s="37" t="s">
-        <v>362</v>
-      </c>
-      <c r="C104" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="D104" s="40" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="15"/>
+      <c r="B104" s="15" t="s">
+        <v>511</v>
+      </c>
+      <c r="C104" s="15" t="s">
+        <v>568</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="E104" s="26"/>
+      <c r="F104" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="G104" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="H104" s="16" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="37"/>
+      <c r="B105" s="37" t="s">
+        <v>360</v>
+      </c>
+      <c r="C105" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="D105" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="E105" s="39"/>
+      <c r="F105" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="G105" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="H105" s="38" t="s">
         <v>165</v>
       </c>
-      <c r="E104" s="39"/>
-      <c r="F104" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="G104" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="H104" s="38" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="15"/>
-      <c r="B105" s="15" t="s">
-        <v>519</v>
-      </c>
-      <c r="C105" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="E105" s="26"/>
-      <c r="F105" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="G105" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="H105" s="16" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A106" s="15"/>
       <c r="B106" s="15" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="C106" s="15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="E106" s="26"/>
       <c r="F106" s="26" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="G106" s="26" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="H106" s="16" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A107" s="15"/>
       <c r="B107" s="15" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="C107" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="E107" s="26"/>
       <c r="F107" s="26" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="G107" s="26" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="H107" s="16" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A108" s="15"/>
       <c r="B108" s="15" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="C108" s="15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="E108" s="24"/>
+        <v>334</v>
+      </c>
+      <c r="E108" s="26"/>
       <c r="F108" s="26" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="G108" s="26" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="H108" s="16" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A109" s="15"/>
       <c r="B109" s="15" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="C109" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="E109" s="26"/>
+        <v>336</v>
+      </c>
+      <c r="E109" s="24"/>
       <c r="F109" s="26" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="G109" s="26" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="H109" s="16" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="110" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A110" s="15"/>
       <c r="B110" s="15" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="C110" s="15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E110" s="26"/>
       <c r="F110" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="G110" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="G110" s="26" t="s">
-        <v>142</v>
-      </c>
       <c r="H110" s="16" t="s">
-        <v>240</v>
+        <v>339</v>
       </c>
     </row>
     <row r="111" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A111" s="15"/>
       <c r="B111" s="15" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="C111" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E111" s="26"/>
       <c r="F111" s="26" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="G111" s="26" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="H111" s="16" t="s">
-        <v>344</v>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="15"/>
+      <c r="B112" s="15" t="s">
+        <v>518</v>
+      </c>
+      <c r="C112" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E112" s="26"/>
+      <c r="F112" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="G112" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="H112" s="16" t="s">
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -8623,21 +8688,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010059947A54AABC264B9B6A1395610EB9E4" ma:contentTypeVersion="4" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="039196c1875697d49709999e09f36296">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="669b3db3-d5a4-4d30-a460-f1a7bf62d82d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9472c2359e272d42a2ac2df94db4dd7c" ns2:_="">
     <xsd:import namespace="669b3db3-d5a4-4d30-a460-f1a7bf62d82d"/>
@@ -8781,24 +8831,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7511AB4F-EDCE-4C8F-9114-F29EE1FED04D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DACEA6D3-E19D-4B7E-B8E4-FC2FFCAA4342}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7010204-F282-4DB8-BAA4-6B407FACE274}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8814,4 +8862,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DACEA6D3-E19D-4B7E-B8E4-FC2FFCAA4342}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7511AB4F-EDCE-4C8F-9114-F29EE1FED04D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Guia_Api_Facturas_Generix.xlsx
+++ b/Guia_Api_Facturas_Generix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://generixgrouponline-my.sharepoint.com/personal/layuso_generixgroup_com/Documents/Documentos/factura/Genericos CYC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://generixgrouponline-my.sharepoint.com/personal/icastro_generixgroup_com/Documents/Documentos/GitHub/GenerixCyC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="131" documentId="13_ncr:1_{010EF652-DD21-44E7-ABE9-A00A0A7ADC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B511AA9-409A-4E3C-A09E-51643FD1E3C3}"/>
+  <xr:revisionPtr revIDLastSave="175" documentId="13_ncr:1_{010EF652-DD21-44E7-ABE9-A00A0A7ADC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6505001-0138-46C3-AF46-3F460229ADA0}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14685" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Esquema General" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1552" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="594">
   <si>
     <t>JSON</t>
   </si>
@@ -1608,24 +1608,6 @@
     <t>2.2.7.1.</t>
   </si>
   <si>
-    <t>2.2.7.1.1.</t>
-  </si>
-  <si>
-    <t>2.2.7.1.1.1.</t>
-  </si>
-  <si>
-    <t>2.2.7.1.1.2.</t>
-  </si>
-  <si>
-    <t>2.2.7.1.1.3.</t>
-  </si>
-  <si>
-    <t>2.2.7.1.1.4.</t>
-  </si>
-  <si>
-    <t>2.2.7.1.1.5.</t>
-  </si>
-  <si>
     <t>2.2.5.1.13.1.1.</t>
   </si>
   <si>
@@ -1823,6 +1805,52 @@
   </si>
   <si>
     <t>2.1.1.4.5.5.</t>
+  </si>
+  <si>
+    <t>LegalLiterals</t>
+  </si>
+  <si>
+    <t>Literales legales.</t>
+  </si>
+  <si>
+    <t>LegalLiteralsType</t>
+  </si>
+  <si>
+    <t>LegalReference</t>
+  </si>
+  <si>
+    <t>Textos literales que deben figurar obligatoriamete en determinadas facturas. Para más información, leer la documentación.</t>
+  </si>
+  <si>
+    <t>[0..*]</t>
+  </si>
+  <si>
+    <t>TextMax250Type string positions: 0-
+250</t>
+  </si>
+  <si>
+    <t>2.2.8.</t>
+  </si>
+  <si>
+    <t>2.2.8.1.</t>
+  </si>
+  <si>
+    <t>2.2.8.1.1.</t>
+  </si>
+  <si>
+    <t>2.2.8.1.1.1.</t>
+  </si>
+  <si>
+    <t>2.2.8.1.1.2.</t>
+  </si>
+  <si>
+    <t>2.2.8.1.1.3.</t>
+  </si>
+  <si>
+    <t>2.2.8.1.1.4.</t>
+  </si>
+  <si>
+    <t>2.2.8.1.1.5.</t>
   </si>
 </sst>
 </file>
@@ -2340,9 +2368,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>239782</xdr:colOff>
+      <xdr:colOff>249307</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>384845</xdr:rowOff>
+      <xdr:rowOff>396275</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2704,25 +2732,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="12" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="18" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" style="28" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" style="29" customWidth="1"/>
-    <col min="4" max="4" width="82.85546875" style="31" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" style="18" customWidth="1"/>
-    <col min="7" max="7" width="27.5703125" style="29" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" style="30" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="29"/>
+    <col min="1" max="1" width="2.6640625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="28" customWidth="1"/>
+    <col min="3" max="3" width="25.109375" style="29" customWidth="1"/>
+    <col min="4" max="4" width="82.88671875" style="31" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" style="18" customWidth="1"/>
+    <col min="7" max="7" width="27.5546875" style="29" customWidth="1"/>
+    <col min="8" max="8" width="7.88671875" style="30" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="38.85" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:9" s="22" customFormat="1" ht="18.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="38.85" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:9" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="57" t="s">
         <v>0</v>
       </c>
@@ -2734,7 +2762,7 @@
       <c r="G2" s="57"/>
       <c r="H2" s="47"/>
     </row>
-    <row r="3" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="10" t="s">
         <v>121</v>
@@ -2756,7 +2784,7 @@
       </c>
       <c r="I3" s="28"/>
     </row>
-    <row r="4" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="26"/>
       <c r="B4" s="15"/>
       <c r="C4" s="16" t="s">
@@ -2773,7 +2801,7 @@
       </c>
       <c r="G4" s="16"/>
     </row>
-    <row r="5" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="53"/>
       <c r="B5" s="54" t="s">
         <v>343</v>
@@ -2794,7 +2822,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="26"/>
       <c r="B6" s="15" t="s">
         <v>344</v>
@@ -2816,7 +2844,7 @@
       </c>
       <c r="H6" s="29"/>
     </row>
-    <row r="7" spans="1:9" ht="48" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A7" s="26"/>
       <c r="B7" s="15" t="s">
         <v>345</v>
@@ -2837,7 +2865,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="48" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="48" x14ac:dyDescent="0.3">
       <c r="A8" s="26"/>
       <c r="B8" s="15" t="s">
         <v>346</v>
@@ -2858,7 +2886,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="26"/>
       <c r="B9" s="15" t="s">
         <v>347</v>
@@ -2879,7 +2907,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="26"/>
       <c r="B10" s="15" t="s">
         <v>348</v>
@@ -2900,7 +2928,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="53"/>
       <c r="B11" s="54" t="s">
         <v>349</v>
@@ -2921,7 +2949,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="26"/>
       <c r="B12" s="15" t="s">
         <v>350</v>
@@ -2942,7 +2970,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A13" s="26"/>
       <c r="B13" s="15" t="s">
         <v>351</v>
@@ -2963,7 +2991,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A14" s="26"/>
       <c r="B14" s="15" t="s">
         <v>352</v>
@@ -2984,7 +3012,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="26"/>
       <c r="B15" s="15" t="s">
         <v>353</v>
@@ -3005,7 +3033,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A16" s="26"/>
       <c r="B16" s="15" t="s">
         <v>354</v>
@@ -3027,7 +3055,7 @@
       </c>
       <c r="H16" s="29"/>
     </row>
-    <row r="17" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A17" s="26"/>
       <c r="B17" s="15" t="s">
         <v>355</v>
@@ -3049,7 +3077,7 @@
       </c>
       <c r="H17" s="29"/>
     </row>
-    <row r="18" spans="1:8" ht="11.65" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A18" s="26"/>
       <c r="B18" s="15" t="s">
         <v>356</v>
@@ -3069,7 +3097,7 @@
       <c r="G18" s="16"/>
       <c r="H18" s="29"/>
     </row>
-    <row r="19" spans="1:8" ht="11.65" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A19" s="26"/>
       <c r="B19" s="15" t="s">
         <v>357</v>
@@ -3091,7 +3119,7 @@
       </c>
       <c r="H19" s="29"/>
     </row>
-    <row r="20" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A20" s="26"/>
       <c r="B20" s="15" t="s">
         <v>358</v>
@@ -3113,7 +3141,7 @@
       </c>
       <c r="H20" s="29"/>
     </row>
-    <row r="21" spans="1:8" ht="11.65" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A21" s="26"/>
       <c r="B21" s="15" t="s">
         <v>359</v>
@@ -3135,7 +3163,7 @@
       </c>
       <c r="H21" s="29"/>
     </row>
-    <row r="22" spans="1:8" ht="11.65" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A22" s="26"/>
       <c r="B22" s="15" t="s">
         <v>360</v>
@@ -3157,57 +3185,57 @@
       </c>
       <c r="H22" s="29"/>
     </row>
-    <row r="23" spans="1:8" ht="11.65" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="29"/>
       <c r="B23" s="29"/>
       <c r="D23" s="29"/>
       <c r="E23" s="29"/>
       <c r="F23" s="29"/>
     </row>
-    <row r="24" spans="1:8" ht="11.65" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="29"/>
       <c r="B24" s="29"/>
       <c r="D24" s="29"/>
       <c r="E24" s="29"/>
       <c r="F24" s="29"/>
     </row>
-    <row r="25" spans="1:8" ht="11.65" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="29"/>
       <c r="B25" s="29"/>
       <c r="D25" s="29"/>
       <c r="E25" s="29"/>
       <c r="F25" s="29"/>
     </row>
-    <row r="26" spans="1:8" ht="11.65" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="29"/>
       <c r="B26" s="29"/>
       <c r="D26" s="29"/>
       <c r="E26" s="29"/>
       <c r="F26" s="29"/>
     </row>
-    <row r="27" spans="1:8" ht="11.65" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="29"/>
       <c r="B27" s="29"/>
       <c r="D27" s="29"/>
       <c r="E27" s="29"/>
       <c r="F27" s="29"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D28" s="32"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D29" s="32"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D30" s="32"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D31" s="32"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D32" s="32"/>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D33" s="32"/>
     </row>
   </sheetData>
@@ -3232,21 +3260,21 @@
       <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="12" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="23" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="23" customWidth="1"/>
     <col min="2" max="2" width="12" style="23" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" style="23" customWidth="1"/>
-    <col min="4" max="4" width="98.7109375" style="27" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="23" customWidth="1"/>
-    <col min="6" max="7" width="11.5703125" style="29"/>
+    <col min="3" max="3" width="27.88671875" style="23" customWidth="1"/>
+    <col min="4" max="4" width="98.6640625" style="27" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="23" customWidth="1"/>
+    <col min="6" max="7" width="11.5546875" style="29"/>
     <col min="8" max="8" width="61" style="28" customWidth="1"/>
-    <col min="9" max="9" width="24.42578125" style="28" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="11.42578125" style="23" customWidth="1"/>
-    <col min="13" max="16384" width="11.5703125" style="23"/>
+    <col min="9" max="9" width="24.44140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="11.44140625" style="23" customWidth="1"/>
+    <col min="13" max="16384" width="11.5546875" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="29" customFormat="1" ht="38.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="29" customFormat="1" ht="38.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18"/>
       <c r="B1" s="28"/>
       <c r="D1" s="31"/>
@@ -3254,7 +3282,7 @@
       <c r="F1" s="18"/>
       <c r="H1" s="30"/>
     </row>
-    <row r="2" spans="1:14" s="22" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="57" t="s">
         <v>0</v>
       </c>
@@ -3267,7 +3295,7 @@
       <c r="H2" s="57"/>
       <c r="I2" s="48"/>
     </row>
-    <row r="3" spans="1:14" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
         <v>343</v>
@@ -3282,7 +3310,7 @@
       <c r="H3" s="8"/>
       <c r="I3" s="49"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="10" t="s">
         <v>121</v>
@@ -3306,7 +3334,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
       <c r="B5" s="15" t="s">
         <v>343</v>
@@ -3328,7 +3356,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
         <v>344</v>
@@ -3348,7 +3376,7 @@
       <c r="M6" s="17"/>
       <c r="N6" s="24"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="10" t="s">
         <v>121</v>
@@ -3377,7 +3405,7 @@
       <c r="M7" s="17"/>
       <c r="N7" s="24"/>
     </row>
-    <row r="8" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
       <c r="B8" s="2" t="s">
         <v>344</v>
@@ -3404,7 +3432,7 @@
       <c r="M8" s="17"/>
       <c r="N8" s="24"/>
     </row>
-    <row r="9" spans="1:14" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
         <v>345</v>
@@ -3424,7 +3452,7 @@
       <c r="M9" s="17"/>
       <c r="N9" s="24"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="10" t="s">
         <v>121</v>
@@ -3448,7 +3476,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="36" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
       <c r="B11" s="2" t="s">
         <v>345</v>
@@ -3470,7 +3498,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
         <v>346</v>
@@ -3485,7 +3513,7 @@
       <c r="H12" s="19"/>
       <c r="I12" s="49"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="10" t="s">
         <v>121</v>
@@ -3509,7 +3537,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="36" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="2" t="s">
         <v>346</v>
@@ -3531,7 +3559,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="5" t="s">
         <v>347</v>
@@ -3546,7 +3574,7 @@
       <c r="H15" s="19"/>
       <c r="I15" s="49"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="10" t="s">
         <v>121</v>
@@ -3570,7 +3598,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="17" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="2" t="s">
         <v>347</v>
@@ -3592,7 +3620,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="15" t="s">
         <v>361</v>
@@ -3614,7 +3642,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="19" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="15" t="s">
         <v>362</v>
@@ -3636,7 +3664,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="20" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="15" t="s">
         <v>363</v>
@@ -3658,7 +3686,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="15" t="s">
         <v>364</v>
@@ -3680,7 +3708,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="22" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
       <c r="B22" s="15" t="s">
         <v>365</v>
@@ -3702,7 +3730,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="23" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="15" t="s">
         <v>366</v>
@@ -3724,7 +3752,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="24" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
       <c r="B24" s="15" t="s">
         <v>367</v>
@@ -3746,7 +3774,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="25" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="15" t="s">
         <v>368</v>
@@ -3768,7 +3796,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="26" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
       <c r="B26" s="15" t="s">
         <v>369</v>
@@ -3790,7 +3818,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="27" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="B27" s="15" t="s">
         <v>370</v>
@@ -3812,7 +3840,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="28" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="15" t="s">
         <v>371</v>
@@ -3834,7 +3862,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="29" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
       <c r="B29" s="15" t="s">
         <v>372</v>
@@ -3856,7 +3884,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="30" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
       <c r="B30" s="15" t="s">
         <v>373</v>
@@ -3878,7 +3906,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="31" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
       <c r="B31" s="15" t="s">
         <v>374</v>
@@ -3900,7 +3928,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="32" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
       <c r="B32" s="15" t="s">
         <v>375</v>
@@ -3922,7 +3950,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="33" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
       <c r="B33" s="15" t="s">
         <v>376</v>
@@ -3944,7 +3972,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="34" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
       <c r="B34" s="15" t="s">
         <v>377</v>
@@ -3966,7 +3994,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="35" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
       <c r="B35" s="15" t="s">
         <v>378</v>
@@ -3988,7 +4016,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="36" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
       <c r="B36" s="15" t="s">
         <v>379</v>
@@ -4010,7 +4038,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="37" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14"/>
       <c r="B37" s="15" t="s">
         <v>380</v>
@@ -4032,7 +4060,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="38" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14"/>
       <c r="B38" s="15" t="s">
         <v>381</v>
@@ -4054,7 +4082,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="39" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14"/>
       <c r="B39" s="15" t="s">
         <v>382</v>
@@ -4076,7 +4104,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="40" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A40" s="14"/>
       <c r="B40" s="15" t="s">
         <v>383</v>
@@ -4098,7 +4126,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="41" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" s="14"/>
       <c r="B41" s="15" t="s">
         <v>384</v>
@@ -4120,7 +4148,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="42" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A42" s="14"/>
       <c r="B42" s="15" t="s">
         <v>385</v>
@@ -4142,7 +4170,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="43" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A43" s="14"/>
       <c r="B43" s="15" t="s">
         <v>386</v>
@@ -4164,7 +4192,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
       <c r="B44" s="5" t="s">
         <v>348</v>
@@ -4179,7 +4207,7 @@
       <c r="H44" s="19"/>
       <c r="I44" s="49"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="9"/>
       <c r="B45" s="10" t="s">
         <v>121</v>
@@ -4203,7 +4231,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="46" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A46" s="14"/>
       <c r="B46" s="2" t="s">
         <v>348</v>
@@ -4225,7 +4253,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="24" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A47" s="14"/>
       <c r="B47" s="15" t="s">
         <v>387</v>
@@ -4247,7 +4275,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="24" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A48" s="14"/>
       <c r="B48" s="15" t="s">
         <v>388</v>
@@ -4269,7 +4297,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A49" s="14"/>
       <c r="B49" s="15" t="s">
         <v>389</v>
@@ -4291,7 +4319,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A50" s="14"/>
       <c r="B50" s="15" t="s">
         <v>389</v>
@@ -4315,7 +4343,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A51" s="14"/>
       <c r="B51" s="15" t="s">
         <v>390</v>
@@ -4337,7 +4365,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A52" s="14"/>
       <c r="B52" s="15" t="s">
         <v>391</v>
@@ -4361,7 +4389,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="53" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A53" s="14"/>
       <c r="B53" s="15" t="s">
         <v>392</v>
@@ -4383,7 +4411,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A54" s="14"/>
       <c r="B54" s="15" t="s">
         <v>393</v>
@@ -4407,7 +4435,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="60" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" ht="60" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A55" s="14"/>
       <c r="B55" s="15" t="s">
         <v>394</v>
@@ -4446,19 +4474,19 @@
       <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="12" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="23" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="23" customWidth="1"/>
     <col min="2" max="2" width="12" style="23" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" style="23" customWidth="1"/>
-    <col min="4" max="4" width="96.7109375" style="45" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="23" customWidth="1"/>
-    <col min="6" max="7" width="11.5703125" style="46"/>
-    <col min="8" max="8" width="39.5703125" style="23" customWidth="1"/>
-    <col min="9" max="16384" width="11.5703125" style="23"/>
+    <col min="3" max="3" width="27.88671875" style="23" customWidth="1"/>
+    <col min="4" max="4" width="96.6640625" style="45" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="23" customWidth="1"/>
+    <col min="6" max="7" width="11.5546875" style="46"/>
+    <col min="8" max="8" width="39.5546875" style="23" customWidth="1"/>
+    <col min="9" max="16384" width="11.5546875" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="29" customFormat="1" ht="38.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="29" customFormat="1" ht="38.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18"/>
       <c r="B1" s="28"/>
       <c r="D1" s="31"/>
@@ -4466,7 +4494,7 @@
       <c r="F1" s="18"/>
       <c r="H1" s="30"/>
     </row>
-    <row r="2" spans="1:9" s="22" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="57" t="s">
         <v>0</v>
       </c>
@@ -4478,7 +4506,7 @@
       <c r="G2" s="57"/>
       <c r="H2" s="57"/>
     </row>
-    <row r="3" spans="1:9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
         <v>349</v>
@@ -4493,7 +4521,7 @@
       <c r="H3" s="41"/>
       <c r="I3" s="34"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="10" t="s">
         <v>121</v>
@@ -4517,7 +4545,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:9" customFormat="1" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" customFormat="1" ht="14.4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15"/>
       <c r="B5" s="15" t="s">
         <v>349</v>
@@ -4538,7 +4566,7 @@
       </c>
       <c r="I5" s="34"/>
     </row>
-    <row r="6" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
         <v>350</v>
@@ -4552,7 +4580,7 @@
       <c r="G6" s="7"/>
       <c r="H6" s="19"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="10" t="s">
         <v>121</v>
@@ -4576,7 +4604,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
       <c r="B8" s="15" t="s">
         <v>350</v>
@@ -4598,7 +4626,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
         <v>351</v>
@@ -4612,7 +4640,7 @@
       <c r="G9" s="7"/>
       <c r="H9" s="19"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="10" t="s">
         <v>121</v>
@@ -4636,7 +4664,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
       <c r="B11" s="20" t="s">
         <v>351</v>
@@ -4658,7 +4686,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="20" t="s">
         <v>395</v>
@@ -4680,7 +4708,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="13" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16"/>
       <c r="B13" s="20" t="s">
         <v>396</v>
@@ -4702,7 +4730,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="24" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16"/>
       <c r="B14" s="20" t="s">
         <v>397</v>
@@ -4724,7 +4752,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="48" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="48" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16"/>
       <c r="B15" s="20" t="s">
         <v>398</v>
@@ -4746,7 +4774,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="24" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
       <c r="B16" s="20" t="s">
         <v>399</v>
@@ -4768,7 +4796,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="17" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
       <c r="B17" s="20" t="s">
         <v>400</v>
@@ -4790,7 +4818,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="18" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16"/>
       <c r="B18" s="20" t="s">
         <v>401</v>
@@ -4812,7 +4840,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="84" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="84" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16"/>
       <c r="B19" s="20" t="s">
         <v>402</v>
@@ -4834,7 +4862,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="20" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16"/>
       <c r="B20" s="20" t="s">
         <v>403</v>
@@ -4856,7 +4884,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="21" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16"/>
       <c r="B21" s="20" t="s">
         <v>404</v>
@@ -4878,7 +4906,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="22" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16"/>
       <c r="B22" s="20" t="s">
         <v>405</v>
@@ -4900,7 +4928,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="23" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16"/>
       <c r="B23" s="20" t="s">
         <v>406</v>
@@ -4922,7 +4950,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="24" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16"/>
       <c r="B24" s="20" t="s">
         <v>407</v>
@@ -4944,7 +4972,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16"/>
       <c r="B25" s="20" t="s">
         <v>408</v>
@@ -4966,7 +4994,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="26" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16"/>
       <c r="B26" s="20" t="s">
         <v>409</v>
@@ -4988,7 +5016,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="27" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16"/>
       <c r="B27" s="20" t="s">
         <v>410</v>
@@ -5010,7 +5038,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="28" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16"/>
       <c r="B28" s="20" t="s">
         <v>411</v>
@@ -5032,16 +5060,16 @@
         <v>179</v>
       </c>
     </row>
-    <row r="29" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16"/>
       <c r="B29" s="20" t="s">
         <v>412</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="D29" s="43" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="E29" s="17"/>
       <c r="F29" s="26" t="s">
@@ -5054,10 +5082,10 @@
         <v>209</v>
       </c>
     </row>
-    <row r="30" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16"/>
       <c r="B30" s="20" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="C30" s="20" t="s">
         <v>13</v>
@@ -5076,10 +5104,10 @@
         <v>183</v>
       </c>
     </row>
-    <row r="31" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16"/>
       <c r="B31" s="20" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="C31" s="20" t="s">
         <v>14</v>
@@ -5098,10 +5126,10 @@
         <v>183</v>
       </c>
     </row>
-    <row r="32" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16"/>
       <c r="B32" s="20" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="C32" s="20" t="s">
         <v>15</v>
@@ -5120,10 +5148,10 @@
         <v>183</v>
       </c>
     </row>
-    <row r="33" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16"/>
       <c r="B33" s="20" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="C33" s="20" t="s">
         <v>16</v>
@@ -5142,10 +5170,10 @@
         <v>183</v>
       </c>
     </row>
-    <row r="34" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16"/>
       <c r="B34" s="20" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="C34" s="20" t="s">
         <v>17</v>
@@ -5164,10 +5192,10 @@
         <v>183</v>
       </c>
     </row>
-    <row r="35" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" s="16"/>
       <c r="B35" s="20" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="C35" s="20" t="s">
         <v>18</v>
@@ -5186,10 +5214,10 @@
         <v>183</v>
       </c>
     </row>
-    <row r="36" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A36" s="16"/>
       <c r="B36" s="20" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="C36" s="20" t="s">
         <v>19</v>
@@ -5208,10 +5236,10 @@
         <v>183</v>
       </c>
     </row>
-    <row r="37" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A37" s="16"/>
       <c r="B37" s="20" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="C37" s="20" t="s">
         <v>20</v>
@@ -5230,10 +5258,10 @@
         <v>183</v>
       </c>
     </row>
-    <row r="38" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A38" s="16"/>
       <c r="B38" s="20" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="C38" s="20" t="s">
         <v>21</v>
@@ -5252,10 +5280,10 @@
         <v>191</v>
       </c>
     </row>
-    <row r="39" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A39" s="16"/>
       <c r="B39" s="20" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="C39" s="20" t="s">
         <v>22</v>
@@ -5274,10 +5302,10 @@
         <v>179</v>
       </c>
     </row>
-    <row r="40" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A40" s="16"/>
       <c r="B40" s="20" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="C40" s="20" t="s">
         <v>23</v>
@@ -5296,10 +5324,10 @@
         <v>194</v>
       </c>
     </row>
-    <row r="41" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" s="16"/>
       <c r="B41" s="20" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="C41" s="20" t="s">
         <v>24</v>
@@ -5318,10 +5346,10 @@
         <v>196</v>
       </c>
     </row>
-    <row r="42" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A42" s="16"/>
       <c r="B42" s="20" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="C42" s="20" t="s">
         <v>25</v>
@@ -5340,10 +5368,10 @@
         <v>183</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A43" s="16"/>
       <c r="B43" s="20" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="C43" s="20" t="s">
         <v>26</v>
@@ -5362,10 +5390,10 @@
         <v>199</v>
       </c>
     </row>
-    <row r="44" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A44" s="16"/>
       <c r="B44" s="20" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="C44" s="20" t="s">
         <v>27</v>
@@ -5384,10 +5412,10 @@
         <v>201</v>
       </c>
     </row>
-    <row r="45" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A45" s="16"/>
       <c r="B45" s="20" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="C45" s="20" t="s">
         <v>28</v>
@@ -5406,10 +5434,10 @@
         <v>203</v>
       </c>
     </row>
-    <row r="46" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A46" s="16"/>
       <c r="B46" s="20" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="C46" s="20" t="s">
         <v>29</v>
@@ -5428,10 +5456,10 @@
         <v>203</v>
       </c>
     </row>
-    <row r="47" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A47" s="16"/>
       <c r="B47" s="20" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="C47" s="20" t="s">
         <v>30</v>
@@ -5450,10 +5478,10 @@
         <v>206</v>
       </c>
     </row>
-    <row r="48" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A48" s="16"/>
       <c r="B48" s="20" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="C48" s="20" t="s">
         <v>31</v>
@@ -5472,10 +5500,10 @@
         <v>206</v>
       </c>
     </row>
-    <row r="49" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A49" s="16"/>
       <c r="B49" s="20" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="C49" s="20" t="s">
         <v>32</v>
@@ -5494,7 +5522,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A50" s="4"/>
       <c r="B50" s="5" t="s">
         <v>352</v>
@@ -5508,7 +5536,7 @@
       <c r="G50" s="7"/>
       <c r="H50" s="19"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="9"/>
       <c r="B51" s="10" t="s">
         <v>121</v>
@@ -5532,7 +5560,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="52" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A52" s="16"/>
       <c r="B52" s="21" t="s">
         <v>352</v>
@@ -5554,7 +5582,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="53" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A53" s="16"/>
       <c r="B53" s="21" t="s">
         <v>413</v>
@@ -5576,7 +5604,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="54" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A54" s="16"/>
       <c r="B54" s="21" t="s">
         <v>414</v>
@@ -5598,7 +5626,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A55" s="16"/>
       <c r="B55" s="21" t="s">
         <v>415</v>
@@ -5620,7 +5648,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A56" s="16"/>
       <c r="B56" s="21" t="s">
         <v>416</v>
@@ -5642,7 +5670,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A57" s="16"/>
       <c r="B57" s="21" t="s">
         <v>417</v>
@@ -5664,7 +5692,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="58" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A58" s="16"/>
       <c r="B58" s="21" t="s">
         <v>418</v>
@@ -5686,7 +5714,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="59" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A59" s="16"/>
       <c r="B59" s="21" t="s">
         <v>419</v>
@@ -5708,7 +5736,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="84" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" ht="84" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A60" s="16"/>
       <c r="B60" s="21" t="s">
         <v>420</v>
@@ -5730,7 +5758,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="61" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A61" s="16"/>
       <c r="B61" s="21" t="s">
         <v>421</v>
@@ -5752,7 +5780,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="62" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A62" s="16"/>
       <c r="B62" s="21" t="s">
         <v>422</v>
@@ -5774,7 +5802,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="63" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A63" s="16"/>
       <c r="B63" s="21" t="s">
         <v>423</v>
@@ -5796,7 +5824,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="64" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A64" s="16"/>
       <c r="B64" s="21" t="s">
         <v>424</v>
@@ -5818,7 +5846,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="65" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A65" s="16"/>
       <c r="B65" s="21" t="s">
         <v>425</v>
@@ -5840,7 +5868,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A66" s="16"/>
       <c r="B66" s="21" t="s">
         <v>426</v>
@@ -5862,7 +5890,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="67" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A67" s="16"/>
       <c r="B67" s="21" t="s">
         <v>427</v>
@@ -5884,7 +5912,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="68" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A68" s="16"/>
       <c r="B68" s="21" t="s">
         <v>428</v>
@@ -5906,7 +5934,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="69" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A69" s="16"/>
       <c r="B69" s="21" t="s">
         <v>429</v>
@@ -5928,7 +5956,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="70" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A70" s="16"/>
       <c r="B70" s="21" t="s">
         <v>430</v>
@@ -5950,7 +5978,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="71" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A71" s="16"/>
       <c r="B71" s="21" t="s">
         <v>431</v>
@@ -5972,7 +6000,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="72" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A72" s="16"/>
       <c r="B72" s="21" t="s">
         <v>432</v>
@@ -5994,7 +6022,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="73" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A73" s="16"/>
       <c r="B73" s="21" t="s">
         <v>433</v>
@@ -6016,7 +6044,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="74" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A74" s="16"/>
       <c r="B74" s="21" t="s">
         <v>434</v>
@@ -6038,7 +6066,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A75" s="16"/>
       <c r="B75" s="21" t="s">
         <v>435</v>
@@ -6060,7 +6088,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="76" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A76" s="16"/>
       <c r="B76" s="21" t="s">
         <v>436</v>
@@ -6082,7 +6110,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="77" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A77" s="16"/>
       <c r="B77" s="21" t="s">
         <v>437</v>
@@ -6104,7 +6132,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="78" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A78" s="16"/>
       <c r="B78" s="21" t="s">
         <v>438</v>
@@ -6126,7 +6154,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="79" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A79" s="16"/>
       <c r="B79" s="21" t="s">
         <v>439</v>
@@ -6148,7 +6176,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="80" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A80" s="16"/>
       <c r="B80" s="21" t="s">
         <v>440</v>
@@ -6170,7 +6198,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="81" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A81" s="16"/>
       <c r="B81" s="21" t="s">
         <v>441</v>
@@ -6204,26 +6232,26 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25333C4E-FCEB-4BCB-A95F-5DF88E54B42A}">
-  <dimension ref="A1:I112"/>
+  <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" customWidth="1"/>
-    <col min="4" max="4" width="96.7109375" style="35" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" style="51" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="1"/>
-    <col min="7" max="7" width="11.5703125" style="1"/>
-    <col min="8" max="8" width="53.5703125" style="33" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" style="34"/>
+    <col min="3" max="3" width="27.88671875" customWidth="1"/>
+    <col min="4" max="4" width="96.6640625" style="35" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" style="51" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" style="1"/>
+    <col min="7" max="7" width="11.5546875" style="1"/>
+    <col min="8" max="8" width="53.5546875" style="33" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="29" customFormat="1" ht="38.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="29" customFormat="1" ht="38.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18"/>
       <c r="B1" s="28"/>
       <c r="D1" s="31"/>
@@ -6231,7 +6259,7 @@
       <c r="F1" s="18"/>
       <c r="H1" s="30"/>
     </row>
-    <row r="2" spans="1:8" s="22" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="57" t="s">
         <v>0</v>
       </c>
@@ -6243,7 +6271,7 @@
       <c r="G2" s="57"/>
       <c r="H2" s="57"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
         <v>349</v>
@@ -6257,7 +6285,7 @@
       <c r="G3" s="7"/>
       <c r="H3" s="41"/>
     </row>
-    <row r="4" spans="1:8" s="23" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="23" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="10" t="s">
         <v>121</v>
@@ -6281,7 +6309,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15"/>
       <c r="B5" s="15" t="s">
         <v>349</v>
@@ -6301,7 +6329,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
         <v>353</v>
@@ -6315,7 +6343,7 @@
       <c r="G6" s="7"/>
       <c r="H6" s="41"/>
     </row>
-    <row r="7" spans="1:8" s="23" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="23" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="10" t="s">
         <v>121</v>
@@ -6339,7 +6367,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15"/>
       <c r="B8" s="15" t="s">
         <v>353</v>
@@ -6361,7 +6389,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A9" s="37"/>
       <c r="B9" s="37" t="s">
         <v>354</v>
@@ -6383,7 +6411,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="10" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15"/>
       <c r="B10" s="15" t="s">
         <v>442</v>
@@ -6405,7 +6433,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="60" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="60" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
       <c r="B11" s="15" t="s">
         <v>443</v>
@@ -6427,7 +6455,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15"/>
       <c r="B12" s="15" t="s">
         <v>444</v>
@@ -6449,16 +6477,16 @@
         <v>244</v>
       </c>
     </row>
-    <row r="13" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15"/>
       <c r="B13" s="15" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="E13" s="26"/>
       <c r="F13" s="26" t="s">
@@ -6468,19 +6496,19 @@
         <v>141</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15"/>
       <c r="B14" s="15" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>52</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="E14" s="26"/>
       <c r="F14" s="26" t="s">
@@ -6493,16 +6521,16 @@
         <v>183</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15"/>
       <c r="B15" s="15" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E15" s="26"/>
       <c r="F15" s="26" t="s">
@@ -6512,19 +6540,19 @@
         <v>129</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15"/>
       <c r="B16" s="15" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="E16" s="26"/>
       <c r="F16" s="26" t="s">
@@ -6534,19 +6562,19 @@
         <v>129</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15"/>
       <c r="B17" s="15" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="E17" s="26"/>
       <c r="F17" s="26" t="s">
@@ -6559,10 +6587,10 @@
         <v>248</v>
       </c>
     </row>
-    <row r="18" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15"/>
       <c r="B18" s="15" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>58</v>
@@ -6581,10 +6609,10 @@
         <v>302</v>
       </c>
     </row>
-    <row r="19" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15"/>
       <c r="B19" s="15" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>59</v>
@@ -6603,16 +6631,16 @@
         <v>302</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15"/>
       <c r="B20" s="15" t="s">
+        <v>549</v>
+      </c>
+      <c r="C20" s="15" t="s">
         <v>555</v>
       </c>
-      <c r="C20" s="15" t="s">
-        <v>561</v>
-      </c>
       <c r="D20" s="2" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="E20" s="26"/>
       <c r="F20" s="26" t="s">
@@ -6622,19 +6650,19 @@
         <v>129</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15"/>
       <c r="B21" s="15" t="s">
+        <v>550</v>
+      </c>
+      <c r="C21" s="15" t="s">
         <v>556</v>
       </c>
-      <c r="C21" s="15" t="s">
-        <v>562</v>
-      </c>
       <c r="D21" s="2" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="E21" s="26"/>
       <c r="F21" s="26" t="s">
@@ -6644,19 +6672,19 @@
         <v>129</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15"/>
       <c r="B22" s="15" t="s">
+        <v>551</v>
+      </c>
+      <c r="C22" s="15" t="s">
         <v>557</v>
       </c>
-      <c r="C22" s="15" t="s">
-        <v>563</v>
-      </c>
       <c r="D22" s="2" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="E22" s="26"/>
       <c r="F22" s="26" t="s">
@@ -6666,10 +6694,10 @@
         <v>141</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="37"/>
       <c r="B23" s="37" t="s">
         <v>355</v>
@@ -6691,7 +6719,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15"/>
       <c r="B24" s="15" t="s">
         <v>445</v>
@@ -6713,7 +6741,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="54" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="54" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A25" s="15"/>
       <c r="B25" s="15" t="s">
         <v>446</v>
@@ -6735,7 +6763,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="26" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A26" s="15"/>
       <c r="B26" s="15" t="s">
         <v>447</v>
@@ -6757,7 +6785,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="27" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A27" s="15"/>
       <c r="B27" s="15" t="s">
         <v>448</v>
@@ -6779,7 +6807,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="60" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="60" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A28" s="15"/>
       <c r="B28" s="15" t="s">
         <v>449</v>
@@ -6801,7 +6829,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A29" s="15"/>
       <c r="B29" s="15" t="s">
         <v>450</v>
@@ -6823,7 +6851,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A30" s="15"/>
       <c r="B30" s="15" t="s">
         <v>451</v>
@@ -6845,7 +6873,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="37"/>
       <c r="B31" s="37" t="s">
         <v>356</v>
@@ -6865,7 +6893,7 @@
       </c>
       <c r="H31" s="38"/>
     </row>
-    <row r="32" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A32" s="15"/>
       <c r="B32" s="15" t="s">
         <v>452</v>
@@ -6887,7 +6915,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="108" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="108" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A33" s="15"/>
       <c r="B33" s="15" t="s">
         <v>453</v>
@@ -6909,7 +6937,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A34" s="15"/>
       <c r="B34" s="15" t="s">
         <v>454</v>
@@ -6933,7 +6961,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="35" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A35" s="15"/>
       <c r="B35" s="15" t="s">
         <v>455</v>
@@ -6955,7 +6983,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A36" s="15"/>
       <c r="B36" s="15" t="s">
         <v>456</v>
@@ -6979,7 +7007,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="37" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A37" s="15"/>
       <c r="B37" s="15" t="s">
         <v>457</v>
@@ -7001,7 +7029,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A38" s="15"/>
       <c r="B38" s="15" t="s">
         <v>458</v>
@@ -7025,7 +7053,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="37"/>
       <c r="B39" s="37" t="s">
         <v>357</v>
@@ -7047,7 +7075,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A40" s="15"/>
       <c r="B40" s="15" t="s">
         <v>459</v>
@@ -7071,7 +7099,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A41" s="15"/>
       <c r="B41" s="15" t="s">
         <v>460</v>
@@ -7093,7 +7121,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="42" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A42" s="15"/>
       <c r="B42" s="15" t="s">
         <v>461</v>
@@ -7115,7 +7143,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="43" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A43" s="15"/>
       <c r="B43" s="15" t="s">
         <v>462</v>
@@ -7137,7 +7165,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="44" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A44" s="15"/>
       <c r="B44" s="15" t="s">
         <v>463</v>
@@ -7159,7 +7187,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="45" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A45" s="15"/>
       <c r="B45" s="15" t="s">
         <v>464</v>
@@ -7181,7 +7209,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A46" s="15"/>
       <c r="B46" s="15" t="s">
         <v>465</v>
@@ -7203,7 +7231,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="47" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A47" s="15"/>
       <c r="B47" s="15" t="s">
         <v>466</v>
@@ -7225,7 +7253,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="48" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A48" s="15"/>
       <c r="B48" s="15" t="s">
         <v>467</v>
@@ -7247,7 +7275,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="49" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A49" s="15"/>
       <c r="B49" s="15" t="s">
         <v>468</v>
@@ -7269,7 +7297,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="50" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A50" s="15"/>
       <c r="B50" s="15" t="s">
         <v>469</v>
@@ -7291,7 +7319,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="51" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A51" s="15"/>
       <c r="B51" s="15" t="s">
         <v>470</v>
@@ -7313,7 +7341,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="52" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A52" s="15"/>
       <c r="B52" s="15" t="s">
         <v>471</v>
@@ -7335,7 +7363,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A53" s="15"/>
       <c r="B53" s="15" t="s">
         <v>472</v>
@@ -7359,7 +7387,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="54" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A54" s="15"/>
       <c r="B54" s="15" t="s">
         <v>473</v>
@@ -7383,7 +7411,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="55" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A55" s="15"/>
       <c r="B55" s="15" t="s">
         <v>474</v>
@@ -7407,7 +7435,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A56" s="15"/>
       <c r="B56" s="15" t="s">
         <v>475</v>
@@ -7431,7 +7459,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A57" s="15"/>
       <c r="B57" s="15" t="s">
         <v>476</v>
@@ -7455,7 +7483,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="58" spans="1:9" s="35" customFormat="1" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" s="35" customFormat="1" ht="36" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A58" s="15"/>
       <c r="B58" s="15" t="s">
         <v>477</v>
@@ -7480,7 +7508,7 @@
       </c>
       <c r="I58" s="36"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A59" s="37"/>
       <c r="B59" s="37" t="s">
         <v>358</v>
@@ -7502,7 +7530,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="60" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A60" s="15"/>
       <c r="B60" s="15" t="s">
         <v>478</v>
@@ -7524,7 +7552,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="61" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A61" s="15"/>
       <c r="B61" s="15" t="s">
         <v>479</v>
@@ -7546,7 +7574,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="62" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A62" s="15"/>
       <c r="B62" s="15" t="s">
         <v>480</v>
@@ -7568,7 +7596,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="63" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A63" s="15"/>
       <c r="B63" s="15" t="s">
         <v>481</v>
@@ -7590,7 +7618,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="64" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A64" s="15"/>
       <c r="B64" s="15" t="s">
         <v>482</v>
@@ -7612,7 +7640,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="65" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A65" s="15"/>
       <c r="B65" s="15" t="s">
         <v>483</v>
@@ -7634,7 +7662,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="66" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A66" s="15"/>
       <c r="B66" s="15" t="s">
         <v>484</v>
@@ -7656,7 +7684,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="67" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A67" s="15"/>
       <c r="B67" s="15" t="s">
         <v>485</v>
@@ -7678,7 +7706,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="68" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A68" s="15"/>
       <c r="B68" s="15" t="s">
         <v>486</v>
@@ -7700,7 +7728,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="69" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A69" s="15"/>
       <c r="B69" s="15" t="s">
         <v>487</v>
@@ -7722,7 +7750,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="36" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A70" s="15"/>
       <c r="B70" s="15" t="s">
         <v>488</v>
@@ -7744,7 +7772,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A71" s="15"/>
       <c r="B71" s="15" t="s">
         <v>489</v>
@@ -7768,7 +7796,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="72" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A72" s="15"/>
       <c r="B72" s="15" t="s">
         <v>490</v>
@@ -7792,7 +7820,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="73" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A73" s="15"/>
       <c r="B73" s="15" t="s">
         <v>491</v>
@@ -7814,7 +7842,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="74" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A74" s="15"/>
       <c r="B74" s="15" t="s">
         <v>492</v>
@@ -7836,7 +7864,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="75" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A75" s="15"/>
       <c r="B75" s="15" t="s">
         <v>493</v>
@@ -7858,7 +7886,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="76" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A76" s="15"/>
       <c r="B76" s="15" t="s">
         <v>494</v>
@@ -7880,7 +7908,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="77" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A77" s="15"/>
       <c r="B77" s="15" t="s">
         <v>495</v>
@@ -7902,7 +7930,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="78" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A78" s="15"/>
       <c r="B78" s="15" t="s">
         <v>496</v>
@@ -7924,7 +7952,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="79" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A79" s="15"/>
       <c r="B79" s="15" t="s">
         <v>497</v>
@@ -7946,7 +7974,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="80" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A80" s="15"/>
       <c r="B80" s="15" t="s">
         <v>498</v>
@@ -7968,7 +7996,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="81" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A81" s="15"/>
       <c r="B81" s="15" t="s">
         <v>499</v>
@@ -7990,7 +8018,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="82" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A82" s="15"/>
       <c r="B82" s="15" t="s">
         <v>500</v>
@@ -8012,7 +8040,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="83" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A83" s="15"/>
       <c r="B83" s="15" t="s">
         <v>501</v>
@@ -8036,7 +8064,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A84" s="15"/>
       <c r="B84" s="15" t="s">
         <v>502</v>
@@ -8056,7 +8084,7 @@
       </c>
       <c r="H84" s="16"/>
     </row>
-    <row r="85" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A85" s="15"/>
       <c r="B85" s="15" t="s">
         <v>503</v>
@@ -8078,10 +8106,10 @@
         <v>257</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="108" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="108" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A86" s="15"/>
       <c r="B86" s="15" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="C86" s="15" t="s">
         <v>64</v>
@@ -8100,10 +8128,10 @@
         <v>259</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A87" s="15"/>
       <c r="B87" s="15" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="C87" s="15" t="s">
         <v>65</v>
@@ -8124,10 +8152,10 @@
         <v>263</v>
       </c>
     </row>
-    <row r="88" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A88" s="15"/>
       <c r="B88" s="15" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="C88" s="15" t="s">
         <v>66</v>
@@ -8146,10 +8174,10 @@
         <v>215</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="36" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A89" s="15"/>
       <c r="B89" s="15" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="C89" s="15" t="s">
         <v>37</v>
@@ -8170,10 +8198,10 @@
         <v>263</v>
       </c>
     </row>
-    <row r="90" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A90" s="15"/>
       <c r="B90" s="15" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="C90" s="15" t="s">
         <v>67</v>
@@ -8192,10 +8220,10 @@
         <v>215</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="36" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A91" s="15"/>
       <c r="B91" s="15" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="C91" s="15" t="s">
         <v>37</v>
@@ -8216,7 +8244,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="92" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A92" s="15"/>
       <c r="B92" s="15" t="s">
         <v>504</v>
@@ -8238,10 +8266,10 @@
         <v>248</v>
       </c>
     </row>
-    <row r="93" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A93" s="15"/>
       <c r="B93" s="15" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="C93" s="15" t="s">
         <v>58</v>
@@ -8260,10 +8288,10 @@
         <v>246</v>
       </c>
     </row>
-    <row r="94" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A94" s="15"/>
       <c r="B94" s="15" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="C94" s="15" t="s">
         <v>59</v>
@@ -8282,10 +8310,10 @@
         <v>246</v>
       </c>
     </row>
-    <row r="95" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A95" s="15"/>
       <c r="B95" s="15" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="C95" s="15" t="s">
         <v>105</v>
@@ -8304,7 +8332,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A96" s="37"/>
       <c r="B96" s="37" t="s">
         <v>359</v>
@@ -8326,7 +8354,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="97" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A97" s="15"/>
       <c r="B97" s="15" t="s">
         <v>505</v>
@@ -8348,7 +8376,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="98" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A98" s="15"/>
       <c r="B98" s="15" t="s">
         <v>506</v>
@@ -8370,7 +8398,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="99" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A99" s="15"/>
       <c r="B99" s="15" t="s">
         <v>507</v>
@@ -8392,7 +8420,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A100" s="15"/>
       <c r="B100" s="15" t="s">
         <v>508</v>
@@ -8414,7 +8442,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A101" s="15"/>
       <c r="B101" s="15" t="s">
         <v>509</v>
@@ -8436,7 +8464,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="102" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A102" s="15"/>
       <c r="B102" s="15" t="s">
         <v>510</v>
@@ -8458,16 +8486,16 @@
         <v>329</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A103" s="15"/>
       <c r="B103" s="15" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="C103" s="15" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="E103" s="26"/>
       <c r="F103" s="26" t="s">
@@ -8477,19 +8505,19 @@
         <v>141</v>
       </c>
       <c r="H103" s="16" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A104" s="15"/>
       <c r="B104" s="15" t="s">
         <v>511</v>
       </c>
       <c r="C104" s="15" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="E104" s="26"/>
       <c r="F104" s="26" t="s">
@@ -8502,16 +8530,16 @@
         <v>206</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="37"/>
       <c r="B105" s="37" t="s">
         <v>360</v>
       </c>
       <c r="C105" s="37" t="s">
-        <v>113</v>
+        <v>579</v>
       </c>
       <c r="D105" s="40" t="s">
-        <v>164</v>
+        <v>580</v>
       </c>
       <c r="E105" s="39"/>
       <c r="F105" s="39" t="s">
@@ -8521,63 +8549,63 @@
         <v>141</v>
       </c>
       <c r="H105" s="38" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A106" s="15"/>
       <c r="B106" s="15" t="s">
         <v>512</v>
       </c>
       <c r="C106" s="15" t="s">
-        <v>114</v>
+        <v>582</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>330</v>
+        <v>583</v>
       </c>
       <c r="E106" s="26"/>
       <c r="F106" s="26" t="s">
-        <v>140</v>
+        <v>584</v>
       </c>
       <c r="G106" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="H106" s="16" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="15"/>
-      <c r="B107" s="15" t="s">
-        <v>513</v>
-      </c>
-      <c r="C107" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="E107" s="26"/>
-      <c r="F107" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="G107" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="H107" s="16" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="H106" s="17" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A107" s="37"/>
+      <c r="B107" s="37" t="s">
+        <v>586</v>
+      </c>
+      <c r="C107" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="D107" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="E107" s="39"/>
+      <c r="F107" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="G107" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="H107" s="38" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A108" s="15"/>
       <c r="B108" s="15" t="s">
-        <v>514</v>
+        <v>587</v>
       </c>
       <c r="C108" s="15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="E108" s="26"/>
       <c r="F108" s="26" t="s">
@@ -8587,41 +8615,41 @@
         <v>141</v>
       </c>
       <c r="H108" s="16" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A109" s="15"/>
       <c r="B109" s="15" t="s">
-        <v>515</v>
+        <v>588</v>
       </c>
       <c r="C109" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="E109" s="24"/>
+        <v>332</v>
+      </c>
+      <c r="E109" s="26"/>
       <c r="F109" s="26" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G109" s="26" t="s">
         <v>129</v>
       </c>
       <c r="H109" s="16" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A110" s="15"/>
       <c r="B110" s="15" t="s">
-        <v>516</v>
+        <v>589</v>
       </c>
       <c r="C110" s="15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E110" s="26"/>
       <c r="F110" s="26" t="s">
@@ -8631,50 +8659,92 @@
         <v>141</v>
       </c>
       <c r="H110" s="16" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A111" s="15"/>
       <c r="B111" s="15" t="s">
-        <v>517</v>
+        <v>590</v>
       </c>
       <c r="C111" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="E111" s="26"/>
+        <v>336</v>
+      </c>
+      <c r="E111" s="24"/>
       <c r="F111" s="26" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="G111" s="26" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="H111" s="16" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A112" s="15"/>
       <c r="B112" s="15" t="s">
-        <v>518</v>
+        <v>591</v>
       </c>
       <c r="C112" s="15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E112" s="26"/>
       <c r="F112" s="26" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="G112" s="26" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="H112" s="16" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B113" s="15" t="s">
+        <v>592</v>
+      </c>
+      <c r="C113" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="E113" s="26"/>
+      <c r="F113" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="G113" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="H113" s="16" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B114" s="15" t="s">
+        <v>593</v>
+      </c>
+      <c r="C114" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E114" s="26"/>
+      <c r="F114" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="G114" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="H114" s="16" t="s">
         <v>342</v>
       </c>
     </row>
@@ -8688,6 +8758,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010059947A54AABC264B9B6A1395610EB9E4" ma:contentTypeVersion="4" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="039196c1875697d49709999e09f36296">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="669b3db3-d5a4-4d30-a460-f1a7bf62d82d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9472c2359e272d42a2ac2df94db4dd7c" ns2:_="">
     <xsd:import namespace="669b3db3-d5a4-4d30-a460-f1a7bf62d82d"/>
@@ -8831,22 +8916,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7511AB4F-EDCE-4C8F-9114-F29EE1FED04D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DACEA6D3-E19D-4B7E-B8E4-FC2FFCAA4342}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7010204-F282-4DB8-BAA4-6B407FACE274}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8862,21 +8949,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DACEA6D3-E19D-4B7E-B8E4-FC2FFCAA4342}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7511AB4F-EDCE-4C8F-9114-F29EE1FED04D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Guia_Api_Facturas_Generix.xlsx
+++ b/Guia_Api_Facturas_Generix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://generixgrouponline-my.sharepoint.com/personal/icastro_generixgroup_com/Documents/Documentos/GitHub/GenerixCyC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="175" documentId="13_ncr:1_{010EF652-DD21-44E7-ABE9-A00A0A7ADC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6505001-0138-46C3-AF46-3F460229ADA0}"/>
+  <xr:revisionPtr revIDLastSave="177" documentId="13_ncr:1_{010EF652-DD21-44E7-ABE9-A00A0A7ADC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33397D9E-2C46-45FA-819E-618215A416A7}"/>
   <bookViews>
-    <workbookView xWindow="14685" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22428" windowHeight="14016" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Esquema General" sheetId="1" r:id="rId1"/>
@@ -4470,8 +4470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B13C99-BA63-4783-81FE-9F858A27BFD2}">
   <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="12" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -4669,7 +4669,7 @@
       <c r="B11" s="20" t="s">
         <v>351</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="43" t="s">
         <v>43</v>
       </c>
       <c r="D11" s="43" t="s">
@@ -4691,7 +4691,7 @@
       <c r="B12" s="20" t="s">
         <v>395</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="43" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="43" t="s">
@@ -4713,7 +4713,7 @@
       <c r="B13" s="20" t="s">
         <v>396</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="43" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="43" t="s">
@@ -4735,7 +4735,7 @@
       <c r="B14" s="20" t="s">
         <v>397</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="43" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="43" t="s">
@@ -4757,7 +4757,7 @@
       <c r="B15" s="20" t="s">
         <v>398</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="43" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="43" t="s">
@@ -4779,7 +4779,7 @@
       <c r="B16" s="20" t="s">
         <v>399</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="43" t="s">
         <v>44</v>
       </c>
       <c r="D16" s="43" t="s">
@@ -4801,7 +4801,7 @@
       <c r="B17" s="20" t="s">
         <v>400</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="43" t="s">
         <v>45</v>
       </c>
       <c r="D17" s="43" t="s">
@@ -4823,7 +4823,7 @@
       <c r="B18" s="20" t="s">
         <v>401</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="43" t="s">
         <v>46</v>
       </c>
       <c r="D18" s="43" t="s">
@@ -4845,7 +4845,7 @@
       <c r="B19" s="20" t="s">
         <v>402</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="43" t="s">
         <v>47</v>
       </c>
       <c r="D19" s="43" t="s">
@@ -4867,7 +4867,7 @@
       <c r="B20" s="20" t="s">
         <v>403</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="43" t="s">
         <v>21</v>
       </c>
       <c r="D20" s="43" t="s">
@@ -4889,7 +4889,7 @@
       <c r="B21" s="20" t="s">
         <v>404</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D21" s="43" t="s">
@@ -4911,7 +4911,7 @@
       <c r="B22" s="20" t="s">
         <v>405</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="43" t="s">
         <v>23</v>
       </c>
       <c r="D22" s="43" t="s">
@@ -4933,7 +4933,7 @@
       <c r="B23" s="20" t="s">
         <v>406</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="43" t="s">
         <v>24</v>
       </c>
       <c r="D23" s="43" t="s">
@@ -4955,7 +4955,7 @@
       <c r="B24" s="20" t="s">
         <v>407</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="43" t="s">
         <v>25</v>
       </c>
       <c r="D24" s="43" t="s">
@@ -4977,7 +4977,7 @@
       <c r="B25" s="20" t="s">
         <v>408</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="43" t="s">
         <v>26</v>
       </c>
       <c r="D25" s="43" t="s">
@@ -4999,7 +4999,7 @@
       <c r="B26" s="20" t="s">
         <v>409</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="43" t="s">
         <v>48</v>
       </c>
       <c r="D26" s="43" t="s">
@@ -5021,7 +5021,7 @@
       <c r="B27" s="20" t="s">
         <v>410</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="43" t="s">
         <v>11</v>
       </c>
       <c r="D27" s="43" t="s">
@@ -5043,7 +5043,7 @@
       <c r="B28" s="20" t="s">
         <v>411</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="43" t="s">
         <v>12</v>
       </c>
       <c r="D28" s="43" t="s">
@@ -5065,7 +5065,7 @@
       <c r="B29" s="20" t="s">
         <v>412</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="43" t="s">
         <v>564</v>
       </c>
       <c r="D29" s="43" t="s">
@@ -5087,7 +5087,7 @@
       <c r="B30" s="20" t="s">
         <v>522</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C30" s="43" t="s">
         <v>13</v>
       </c>
       <c r="D30" s="25" t="s">
@@ -6234,7 +6234,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25333C4E-FCEB-4BCB-A95F-5DF88E54B42A}">
   <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -8758,21 +8758,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010059947A54AABC264B9B6A1395610EB9E4" ma:contentTypeVersion="4" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="039196c1875697d49709999e09f36296">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="669b3db3-d5a4-4d30-a460-f1a7bf62d82d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9472c2359e272d42a2ac2df94db4dd7c" ns2:_="">
     <xsd:import namespace="669b3db3-d5a4-4d30-a460-f1a7bf62d82d"/>
@@ -8916,24 +8901,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7511AB4F-EDCE-4C8F-9114-F29EE1FED04D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DACEA6D3-E19D-4B7E-B8E4-FC2FFCAA4342}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7010204-F282-4DB8-BAA4-6B407FACE274}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8949,4 +8932,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DACEA6D3-E19D-4B7E-B8E4-FC2FFCAA4342}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7511AB4F-EDCE-4C8F-9114-F29EE1FED04D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>